--- a/sand_data.xlsx
+++ b/sand_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>1.318183915419285</v>
+        <v>1.282004898780164</v>
       </c>
       <c r="C2" t="n">
-        <v>464107205.6171638</v>
+        <v>319348021.7255466</v>
       </c>
       <c r="D2" t="n">
-        <v>1833053808.476831</v>
+        <v>1790320743.889254</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>1.282004898780164</v>
+        <v>1.222398213204916</v>
       </c>
       <c r="C3" t="n">
-        <v>319348021.7255466</v>
+        <v>343467371.9917762</v>
       </c>
       <c r="D3" t="n">
-        <v>1790320743.889254</v>
+        <v>1711922186.531357</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-4.37902301168589</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>1.222398213204916</v>
+        <v>1.160638472236985</v>
       </c>
       <c r="C4" t="n">
-        <v>343467371.9917762</v>
+        <v>291845320.0359677</v>
       </c>
       <c r="D4" t="n">
-        <v>1711922186.531357</v>
+        <v>1659775101.414588</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-3.046113049240151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>1.160638472236985</v>
+        <v>1.05325796892105</v>
       </c>
       <c r="C5" t="n">
-        <v>291845320.0359677</v>
+        <v>405087879.5107805</v>
       </c>
       <c r="D5" t="n">
-        <v>1659775101.414588</v>
+        <v>1502691163.926528</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-9.464170016418571</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>1.05325796892105</v>
+        <v>1.043311819443092</v>
       </c>
       <c r="C6" t="n">
-        <v>405087879.5107805</v>
+        <v>293577998.6085746</v>
       </c>
       <c r="D6" t="n">
-        <v>1502691163.926528</v>
+        <v>1487418010.639149</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-1.016386710325112</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>1.043311819443092</v>
+        <v>1.077867485520443</v>
       </c>
       <c r="C7" t="n">
-        <v>293577998.6085746</v>
+        <v>194231157.289586</v>
       </c>
       <c r="D7" t="n">
-        <v>1487418010.639149</v>
+        <v>1541703484.508178</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>3.649644785846196</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>1.077867485520443</v>
+        <v>1.054082465154482</v>
       </c>
       <c r="C8" t="n">
-        <v>194231157.289586</v>
+        <v>338635729.8940614</v>
       </c>
       <c r="D8" t="n">
-        <v>1541703484.508178</v>
+        <v>1498604862.159593</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-2.79551955234334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>1.054082465154482</v>
+        <v>1.071845113569717</v>
       </c>
       <c r="C9" t="n">
-        <v>338635729.8940614</v>
+        <v>244707515.3425316</v>
       </c>
       <c r="D9" t="n">
-        <v>1498604862.159593</v>
+        <v>1531065715.410397</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2.166071528956981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>1.071845113569717</v>
+        <v>1.048362044436495</v>
       </c>
       <c r="C10" t="n">
-        <v>244707515.3425316</v>
+        <v>232049061.9343765</v>
       </c>
       <c r="D10" t="n">
-        <v>1531065715.410397</v>
+        <v>1497349216.501413</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-2.202158834178214</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>1.048362044436495</v>
+        <v>1.053476248980853</v>
       </c>
       <c r="C11" t="n">
-        <v>232049061.9343765</v>
+        <v>216021135.4132288</v>
       </c>
       <c r="D11" t="n">
-        <v>1497349216.501413</v>
+        <v>1507951160.393193</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.7080475132281938</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>1.053476248980853</v>
+        <v>0.9621796218241556</v>
       </c>
       <c r="C12" t="n">
-        <v>216021135.4132288</v>
+        <v>297310405.1033829</v>
       </c>
       <c r="D12" t="n">
-        <v>1507951160.393193</v>
+        <v>1409160760.859391</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-6.551299679231192</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9621796218241556</v>
+        <v>0.9727747962925873</v>
       </c>
       <c r="C13" t="n">
-        <v>297310405.1033829</v>
+        <v>198224576.9089021</v>
       </c>
       <c r="D13" t="n">
-        <v>1409160760.859391</v>
+        <v>1431365980.229466</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1.575776163149234</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9727747962925873</v>
+        <v>0.9427939160346955</v>
       </c>
       <c r="C14" t="n">
-        <v>198224576.9089021</v>
+        <v>155988621.4965735</v>
       </c>
       <c r="D14" t="n">
-        <v>1431365980.229466</v>
+        <v>1393150090.286273</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-2.669889495142697</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9427939160346955</v>
+        <v>0.9904108927732856</v>
       </c>
       <c r="C15" t="n">
-        <v>155988621.4965735</v>
+        <v>203842582.4550878</v>
       </c>
       <c r="D15" t="n">
-        <v>1393150090.286273</v>
+        <v>1460547892.072399</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>4.837799046639457</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9904108927732856</v>
+        <v>0.9519673878057521</v>
       </c>
       <c r="C16" t="n">
-        <v>203842582.4550878</v>
+        <v>197209534.2447317</v>
       </c>
       <c r="D16" t="n">
-        <v>1460547892.072399</v>
+        <v>1408888553.6218</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-3.536983534124194</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9519673878057521</v>
+        <v>0.9445465516015733</v>
       </c>
       <c r="C17" t="n">
-        <v>197209534.2447317</v>
+        <v>202952333.1246419</v>
       </c>
       <c r="D17" t="n">
-        <v>1408888553.6218</v>
+        <v>1390847114.010665</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-1.280544125705052</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9445465516015733</v>
+        <v>0.943462284216622</v>
       </c>
       <c r="C18" t="n">
-        <v>202952333.1246419</v>
+        <v>192040874.2008917</v>
       </c>
       <c r="D18" t="n">
-        <v>1390847114.010665</v>
+        <v>1386993193.178853</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-0.2770916222919473</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>0.943462284216622</v>
+        <v>0.9318467847089915</v>
       </c>
       <c r="C19" t="n">
-        <v>192040874.2008917</v>
+        <v>187639078.2704001</v>
       </c>
       <c r="D19" t="n">
-        <v>1386993193.178853</v>
+        <v>1371933649.917869</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-1.085769082000232</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9318467847089915</v>
+        <v>0.9303703700188569</v>
       </c>
       <c r="C20" t="n">
-        <v>187639078.2704001</v>
+        <v>116771417.6182422</v>
       </c>
       <c r="D20" t="n">
-        <v>1371933649.917869</v>
+        <v>1374701959.087716</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.2017815635626974</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9303703700188569</v>
+        <v>0.9722632617776181</v>
       </c>
       <c r="C21" t="n">
-        <v>116771417.6182422</v>
+        <v>211072203.6807552</v>
       </c>
       <c r="D21" t="n">
-        <v>1374701959.087716</v>
+        <v>1431998332.299064</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>4.167912385123174</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9722632617776181</v>
+        <v>0.9562910201205115</v>
       </c>
       <c r="C22" t="n">
-        <v>211072203.6807552</v>
+        <v>270637940.030584</v>
       </c>
       <c r="D22" t="n">
-        <v>1431998332.299064</v>
+        <v>1409058431.658733</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-1.601950234362404</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9562910201205115</v>
+        <v>0.8827265976327874</v>
       </c>
       <c r="C23" t="n">
-        <v>270637940.030584</v>
+        <v>298113828.4361675</v>
       </c>
       <c r="D23" t="n">
-        <v>1409058431.658733</v>
+        <v>1302600419.1794</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.555258893984352</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8827265976327874</v>
+        <v>0.9053453353060666</v>
       </c>
       <c r="C24" t="n">
-        <v>298113828.4361675</v>
+        <v>218235983.0138554</v>
       </c>
       <c r="D24" t="n">
-        <v>1302600419.1794</v>
+        <v>1360567630.012378</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>4.450114553893325</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9053453353060666</v>
+        <v>0.9161960819407664</v>
       </c>
       <c r="C25" t="n">
-        <v>218235983.0138554</v>
+        <v>169078627.262523</v>
       </c>
       <c r="D25" t="n">
-        <v>1360567630.012378</v>
+        <v>1369580026.254798</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.6623997252042102</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9161960819407664</v>
+        <v>0.9800486990270221</v>
       </c>
       <c r="C26" t="n">
-        <v>169078627.262523</v>
+        <v>273295304.2056329</v>
       </c>
       <c r="D26" t="n">
-        <v>1369580026.254798</v>
+        <v>1468780765.203084</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>7.243150239242135</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9800486990270221</v>
+        <v>0.9863453662117205</v>
       </c>
       <c r="C27" t="n">
-        <v>273295304.2056329</v>
+        <v>306316323.6064909</v>
       </c>
       <c r="D27" t="n">
-        <v>1468780765.203084</v>
+        <v>1477293833.779656</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.579601039055988</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9863453662117205</v>
+        <v>0.9733938161089534</v>
       </c>
       <c r="C28" t="n">
-        <v>306316323.6064909</v>
+        <v>201135992.6575145</v>
       </c>
       <c r="D28" t="n">
-        <v>1477293833.779656</v>
+        <v>1459157009.523275</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-1.227705947298074</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9733938161089534</v>
+        <v>0.9595625235060854</v>
       </c>
       <c r="C29" t="n">
-        <v>201135992.6575145</v>
+        <v>265323549.8647164</v>
       </c>
       <c r="D29" t="n">
-        <v>1459157009.523275</v>
+        <v>1437149059.898944</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-1.508264667934667</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9595625235060854</v>
+        <v>0.8808610942161292</v>
       </c>
       <c r="C30" t="n">
-        <v>265323549.8647164</v>
+        <v>348346263.1426163</v>
       </c>
       <c r="D30" t="n">
-        <v>1437149059.898944</v>
+        <v>1322112163.821015</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-8.004520845319817</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8808610942161292</v>
+        <v>0.9022992167255964</v>
       </c>
       <c r="C31" t="n">
-        <v>348346263.1426163</v>
+        <v>183886907.8502702</v>
       </c>
       <c r="D31" t="n">
-        <v>1322112163.821015</v>
+        <v>1350022233.132067</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1096554590594247</v>
+        <v>0.09495371103114603</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.11102129416838</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9022992167255964</v>
+        <v>0.857987147888818</v>
       </c>
       <c r="C32" t="n">
-        <v>183886907.8502702</v>
+        <v>207263769.498554</v>
       </c>
       <c r="D32" t="n">
-        <v>1350022233.132067</v>
+        <v>1288456114.054735</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09495371103114614</v>
+        <v>0.08195610771943437</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.560378160180212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857987147888818</v>
+        <v>0.8768824125995313</v>
       </c>
       <c r="C33" t="n">
-        <v>207263769.498554</v>
+        <v>163916313.9413653</v>
       </c>
       <c r="D33" t="n">
-        <v>1288456114.054735</v>
+        <v>1313380495.224996</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0819561077194345</v>
+        <v>0.07086988991068412</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.934437727321958</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8768824125995313</v>
+        <v>0.9145931400076687</v>
       </c>
       <c r="C34" t="n">
-        <v>163916313.9413653</v>
+        <v>146318243.2453164</v>
       </c>
       <c r="D34" t="n">
-        <v>1313380495.224996</v>
+        <v>1368690147.477691</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07086988991068426</v>
+        <v>0.06207076234502742</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.211243615523586</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9145931400076687</v>
+        <v>0.8308273913477578</v>
       </c>
       <c r="C35" t="n">
-        <v>146318243.2453164</v>
+        <v>230956905.4444035</v>
       </c>
       <c r="D35" t="n">
-        <v>1368690147.477691</v>
+        <v>1247757845.362663</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06207076234502759</v>
+        <v>0.06435534066884913</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-8.835623047180519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8308273913477578</v>
+        <v>0.8589960624025376</v>
       </c>
       <c r="C36" t="n">
-        <v>230956905.4444035</v>
+        <v>217770486.6961922</v>
       </c>
       <c r="D36" t="n">
-        <v>1247757845.362663</v>
+        <v>1291406199.579805</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06435534066884929</v>
+        <v>0.0646448612344083</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.498143039481794</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8589960624025376</v>
+        <v>0.8427806517643873</v>
       </c>
       <c r="C37" t="n">
-        <v>217770486.6961922</v>
+        <v>187816531.2348792</v>
       </c>
       <c r="D37" t="n">
-        <v>1291406199.579805</v>
+        <v>1264845935.473648</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06464486123440848</v>
+        <v>0.06296499924719988</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.056693247624097</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8427806517643873</v>
+        <v>0.8221146343876758</v>
       </c>
       <c r="C38" t="n">
-        <v>187816531.2348792</v>
+        <v>247535372.1167523</v>
       </c>
       <c r="D38" t="n">
-        <v>1264845935.473648</v>
+        <v>1232104390.365662</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06296499924720005</v>
+        <v>0.06311970082186513</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.588579698896332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8221146343876758</v>
+        <v>0.8953612519342713</v>
       </c>
       <c r="C39" t="n">
-        <v>247535372.1167523</v>
+        <v>222444482.4080063</v>
       </c>
       <c r="D39" t="n">
-        <v>1232104390.365662</v>
+        <v>1344169788.876292</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0631197008218653</v>
+        <v>0.05798473590619967</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.095446732185719</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8953612519342713</v>
+        <v>0.9244337485456207</v>
       </c>
       <c r="C40" t="n">
-        <v>222444482.4080063</v>
+        <v>360723851.1179098</v>
       </c>
       <c r="D40" t="n">
-        <v>1344169788.876292</v>
+        <v>1387691182.81103</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05798473590619985</v>
+        <v>0.05346841572845903</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.237789920209466</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9244337485456207</v>
+        <v>0.8907116606364102</v>
       </c>
       <c r="C41" t="n">
-        <v>360723851.1179098</v>
+        <v>239148908.0496759</v>
       </c>
       <c r="D41" t="n">
-        <v>1387691182.81103</v>
+        <v>1336514509.235852</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05346841572845923</v>
+        <v>0.04800729218125141</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.687900752637929</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8907116606364102</v>
+        <v>0.8656964359465353</v>
       </c>
       <c r="C42" t="n">
-        <v>239148908.0496759</v>
+        <v>182360954.8657233</v>
       </c>
       <c r="D42" t="n">
-        <v>1336514509.235852</v>
+        <v>1297208433.002141</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04800729218125163</v>
+        <v>0.04831582992425237</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.940938984357444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8656964359465353</v>
+        <v>0.8580048739014495</v>
       </c>
       <c r="C43" t="n">
-        <v>182360954.8657233</v>
+        <v>192958817.2833694</v>
       </c>
       <c r="D43" t="n">
-        <v>1297208433.002141</v>
+        <v>1282796494.124052</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04831582992425258</v>
+        <v>0.04827433940904835</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1.110996391284269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8580048739014495</v>
+        <v>0.8474310687163827</v>
       </c>
       <c r="C44" t="n">
-        <v>192958817.2833694</v>
+        <v>208433133.8996351</v>
       </c>
       <c r="D44" t="n">
-        <v>1282796494.124052</v>
+        <v>1274031590.987633</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04827433940904857</v>
+        <v>0.04937010974219573</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6832652861593513</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8474310687163827</v>
+        <v>0.8493568674837987</v>
       </c>
       <c r="C45" t="n">
-        <v>208433133.8996351</v>
+        <v>162913400.9157197</v>
       </c>
       <c r="D45" t="n">
-        <v>1274031590.987633</v>
+        <v>1272633207.6348</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04937010974219594</v>
+        <v>0.04812863322584102</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1097604928107843</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8493568674837987</v>
+        <v>0.8522284745583252</v>
       </c>
       <c r="C46" t="n">
-        <v>162913400.9157197</v>
+        <v>139805881.0012951</v>
       </c>
       <c r="D46" t="n">
-        <v>1272633207.6348</v>
+        <v>1279197832.227454</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04812863322584124</v>
+        <v>0.04822357270369817</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.515830056395794</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8522284745583252</v>
+        <v>0.8450266756677777</v>
       </c>
       <c r="C47" t="n">
-        <v>139805881.0012951</v>
+        <v>154419090.9739543</v>
       </c>
       <c r="D47" t="n">
-        <v>1279197832.227454</v>
+        <v>1267092240.815157</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04822357270369838</v>
+        <v>0.04860069902497062</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.9463423957823403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8450266756677777</v>
+        <v>0.8370970985633729</v>
       </c>
       <c r="C48" t="n">
-        <v>154419090.9739543</v>
+        <v>92155526.90053207</v>
       </c>
       <c r="D48" t="n">
-        <v>1267092240.815157</v>
+        <v>1255230948.164278</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04860069902497084</v>
+        <v>0.04908099373025693</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.9361033292452525</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8370970985633729</v>
+        <v>0.8149739802055866</v>
       </c>
       <c r="C49" t="n">
-        <v>92155526.90053207</v>
+        <v>111426503.7801156</v>
       </c>
       <c r="D49" t="n">
-        <v>1255230948.164278</v>
+        <v>1217466856.253705</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04908099373025714</v>
+        <v>0.05066039438786579</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-3.008537350501228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8149739802055866</v>
+        <v>0.832182023814054</v>
       </c>
       <c r="C50" t="n">
-        <v>111426503.7801156</v>
+        <v>144662467.9535313</v>
       </c>
       <c r="D50" t="n">
-        <v>1217466856.253705</v>
+        <v>1249152200.787175</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05066039438786599</v>
+        <v>0.05119850119071986</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.602563213176068</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>0.832182023814054</v>
+        <v>0.8511980422962148</v>
       </c>
       <c r="C51" t="n">
-        <v>144662467.9535313</v>
+        <v>140584891.1602094</v>
       </c>
       <c r="D51" t="n">
-        <v>1249152200.787175</v>
+        <v>1275881959.269124</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05119850119072007</v>
+        <v>0.04903145314784717</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.139831996861918</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8511980422962148</v>
+        <v>0.8619294631324661</v>
       </c>
       <c r="C52" t="n">
-        <v>140584891.1602094</v>
+        <v>200678653.1574013</v>
       </c>
       <c r="D52" t="n">
-        <v>1275881959.269124</v>
+        <v>1292479159.982982</v>
       </c>
       <c r="E52" t="n">
-        <v>0.04903145314784738</v>
+        <v>0.04720674337069473</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.300841397848851</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8619294631324661</v>
+        <v>0.8417897983259578</v>
       </c>
       <c r="C53" t="n">
-        <v>200678653.1574013</v>
+        <v>172747146.0707815</v>
       </c>
       <c r="D53" t="n">
-        <v>1292479159.982982</v>
+        <v>1265779737.995726</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04720674337069496</v>
+        <v>0.04773050334654867</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.065752610479854</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8417897983259578</v>
+        <v>0.8325339874971183</v>
       </c>
       <c r="C54" t="n">
-        <v>172747146.0707815</v>
+        <v>138795553.1104725</v>
       </c>
       <c r="D54" t="n">
-        <v>1265779737.995726</v>
+        <v>1252006057.757226</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04773050334654889</v>
+        <v>0.04820343914382508</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.088157743803775</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8325339874971183</v>
+        <v>0.8296394001720504</v>
       </c>
       <c r="C55" t="n">
-        <v>138795553.1104725</v>
+        <v>87839283.24703887</v>
       </c>
       <c r="D55" t="n">
-        <v>1252006057.757226</v>
+        <v>1246863904.532709</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0482034391438253</v>
+        <v>0.04835188474184202</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4107131265585262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8296394001720504</v>
+        <v>0.8361830445623508</v>
       </c>
       <c r="C56" t="n">
-        <v>87839283.24703887</v>
+        <v>83507766.89158958</v>
       </c>
       <c r="D56" t="n">
-        <v>1246863904.532709</v>
+        <v>1254650066.462831</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04835188474184223</v>
+        <v>0.04443418658286061</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6244596464632046</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8361830445623508</v>
+        <v>0.8089731083326006</v>
       </c>
       <c r="C57" t="n">
-        <v>83507766.89158958</v>
+        <v>117016626.5314801</v>
       </c>
       <c r="D57" t="n">
-        <v>1254650066.462831</v>
+        <v>1218151784.087715</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04443418658286085</v>
+        <v>0.03985782436443946</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-2.909040803545648</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8089731083326006</v>
+        <v>0.7789968437206769</v>
       </c>
       <c r="C58" t="n">
-        <v>117016626.5314801</v>
+        <v>200816447.1778327</v>
       </c>
       <c r="D58" t="n">
-        <v>1218151784.087715</v>
+        <v>1167425923.244813</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03985782436443972</v>
+        <v>0.0370210736126462</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4.164165870420755</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7789968437206769</v>
+        <v>0.7789917528997562</v>
       </c>
       <c r="C59" t="n">
-        <v>200816447.1778327</v>
+        <v>89167804.57346788</v>
       </c>
       <c r="D59" t="n">
-        <v>1167425923.244813</v>
+        <v>1171481063.137302</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03702107361264648</v>
+        <v>0.03429741214095904</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3473573621886272</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7789917528997562</v>
+        <v>0.7643387788752583</v>
       </c>
       <c r="C60" t="n">
-        <v>89167804.57346788</v>
+        <v>235225768.0378735</v>
       </c>
       <c r="D60" t="n">
-        <v>1171481063.137302</v>
+        <v>1149038712.505919</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03429741214095935</v>
+        <v>0.03723268537836014</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.915724576143107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7643387788752583</v>
+        <v>0.7538344828457644</v>
       </c>
       <c r="C61" t="n">
-        <v>235225768.0378735</v>
+        <v>128818644.8893848</v>
       </c>
       <c r="D61" t="n">
-        <v>1149038712.505919</v>
+        <v>1132996603.325065</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03723268537836043</v>
+        <v>0.03940297856408632</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.396133046367709</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7538344828457644</v>
+        <v>0.7608633511928961</v>
       </c>
       <c r="C62" t="n">
-        <v>128818644.8893848</v>
+        <v>99547896.36863284</v>
       </c>
       <c r="D62" t="n">
-        <v>1132996603.325065</v>
+        <v>1145572907.0908</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03940297856408659</v>
+        <v>0.04193863142303463</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.110003660101566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7608633511928961</v>
+        <v>0.7779388011074997</v>
       </c>
       <c r="C63" t="n">
-        <v>99547896.36863284</v>
+        <v>96737716.46198183</v>
       </c>
       <c r="D63" t="n">
-        <v>1145572907.0908</v>
+        <v>1169536053.926051</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04193863142303488</v>
+        <v>0.0427076391498938</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.091804605968384</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7779388011074997</v>
+        <v>0.7926584300353932</v>
       </c>
       <c r="C64" t="n">
-        <v>96737716.46198183</v>
+        <v>98897593.70435147</v>
       </c>
       <c r="D64" t="n">
-        <v>1169536053.926051</v>
+        <v>1193045507.721299</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04270763914989405</v>
+        <v>0.04065406983297198</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.010152121119169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7926584300353932</v>
+        <v>0.7745193553416487</v>
       </c>
       <c r="C65" t="n">
-        <v>98897593.70435147</v>
+        <v>110350075.0303067</v>
       </c>
       <c r="D65" t="n">
-        <v>1193045507.721299</v>
+        <v>1164812583.15702</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04065406983297225</v>
+        <v>0.04195269030415345</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.366458310396191</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7745193553416487</v>
+        <v>0.7319259654526549</v>
       </c>
       <c r="C66" t="n">
-        <v>110350075.0303067</v>
+        <v>113583611.5428761</v>
       </c>
       <c r="D66" t="n">
-        <v>1164812583.15702</v>
+        <v>1100572958.404799</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0419526903041537</v>
+        <v>0.0451501526011872</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-5.515018096568902</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7319259654526549</v>
+        <v>0.7243231394664422</v>
       </c>
       <c r="C67" t="n">
-        <v>113583611.5428761</v>
+        <v>108719904.8197085</v>
       </c>
       <c r="D67" t="n">
-        <v>1100572958.404799</v>
+        <v>1089240928.750574</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04515015260118743</v>
+        <v>0.04860070308482421</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1.029648199847655</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7243231394664422</v>
+        <v>0.7422535153781363</v>
       </c>
       <c r="C68" t="n">
-        <v>108719904.8197085</v>
+        <v>132400199.2892672</v>
       </c>
       <c r="D68" t="n">
-        <v>1089240928.750574</v>
+        <v>1116710210.76229</v>
       </c>
       <c r="E68" t="n">
-        <v>0.04860070308482443</v>
+        <v>0.05068971916158835</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.521873837703259</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7422535153781363</v>
+        <v>0.7446846542078229</v>
       </c>
       <c r="C69" t="n">
-        <v>132400199.2892672</v>
+        <v>101979938.8399341</v>
       </c>
       <c r="D69" t="n">
-        <v>1116710210.76229</v>
+        <v>1119271677.985761</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05068971916158856</v>
+        <v>0.0502758683673488</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2293761800317151</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7446846542078229</v>
+        <v>0.7627029388715183</v>
       </c>
       <c r="C70" t="n">
-        <v>101979938.8399341</v>
+        <v>131706004.9972804</v>
       </c>
       <c r="D70" t="n">
-        <v>1119271677.985761</v>
+        <v>1145656234.687614</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05027586836734901</v>
+        <v>0.04649855143785804</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.357296911982476</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7627029388715183</v>
+        <v>0.7352893323934705</v>
       </c>
       <c r="C71" t="n">
-        <v>131706004.9972804</v>
+        <v>135921176.4963315</v>
       </c>
       <c r="D71" t="n">
-        <v>1145656234.687614</v>
+        <v>1102884793.645402</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04649855143785827</v>
+        <v>0.04562694401894635</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.733357332435239</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7352893323934705</v>
+        <v>0.7632626078920679</v>
       </c>
       <c r="C72" t="n">
-        <v>135921176.4963315</v>
+        <v>165079002.1955695</v>
       </c>
       <c r="D72" t="n">
-        <v>1102884793.645402</v>
+        <v>1148194280.337175</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04562694401894659</v>
+        <v>0.0445879834571061</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.108270143249504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7632626078920679</v>
+        <v>0.7798347302635924</v>
       </c>
       <c r="C73" t="n">
-        <v>165079002.1955695</v>
+        <v>176213532.545265</v>
       </c>
       <c r="D73" t="n">
-        <v>1148194280.337175</v>
+        <v>1173498346.498761</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04458798345710634</v>
+        <v>0.04331737876842228</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.203813988182834</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7798347302635924</v>
+        <v>0.7718754477185636</v>
       </c>
       <c r="C74" t="n">
-        <v>176213532.545265</v>
+        <v>223981994.4447999</v>
       </c>
       <c r="D74" t="n">
-        <v>1173498346.498761</v>
+        <v>1165438757.596883</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04331737876842252</v>
+        <v>0.04246614142633329</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.6868001924267397</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7718754477185636</v>
+        <v>0.7977519905932907</v>
       </c>
       <c r="C75" t="n">
-        <v>223981994.4447999</v>
+        <v>166565206.2139952</v>
       </c>
       <c r="D75" t="n">
-        <v>1165438757.596883</v>
+        <v>1197890416.069366</v>
       </c>
       <c r="E75" t="n">
-        <v>0.04246614142633354</v>
+        <v>0.04118837650145347</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.784501395800354</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7977519905932907</v>
+        <v>0.8097141640865797</v>
       </c>
       <c r="C76" t="n">
-        <v>166565206.2139952</v>
+        <v>236232865.1210113</v>
       </c>
       <c r="D76" t="n">
-        <v>1197890416.069366</v>
+        <v>1219649037.089803</v>
       </c>
       <c r="E76" t="n">
-        <v>0.04118837650145372</v>
+        <v>0.03977531044794314</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.816411645719107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8097141640865797</v>
+        <v>0.8603401097600447</v>
       </c>
       <c r="C77" t="n">
-        <v>236232865.1210113</v>
+        <v>747995939.1966459</v>
       </c>
       <c r="D77" t="n">
-        <v>1219649037.089803</v>
+        <v>1297545201.448187</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03977531044794341</v>
+        <v>0.04057946549481585</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6.386768815416866</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8603401097600447</v>
+        <v>0.8720096764830676</v>
       </c>
       <c r="C78" t="n">
-        <v>747995939.1966459</v>
+        <v>469409786.3413605</v>
       </c>
       <c r="D78" t="n">
-        <v>1297545201.448187</v>
+        <v>1328688898.462189</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04057946549481611</v>
+        <v>0.04238513514387247</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.400201317013306</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8720096764830676</v>
+        <v>0.862424637725269</v>
       </c>
       <c r="C79" t="n">
-        <v>469409786.3413605</v>
+        <v>318126737.5899507</v>
       </c>
       <c r="D79" t="n">
-        <v>1328688898.462189</v>
+        <v>1318608948.169542</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04238513514387272</v>
+        <v>0.04408777713540343</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.75863885852544</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>0.862424637725269</v>
+        <v>0.8113243673928068</v>
       </c>
       <c r="C80" t="n">
-        <v>318126737.5899507</v>
+        <v>311629371.4940768</v>
       </c>
       <c r="D80" t="n">
-        <v>1318608948.169542</v>
+        <v>1239136423.442367</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04408777713540368</v>
+        <v>0.04363516577116702</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-6.026997225939967</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8113243673928068</v>
+        <v>0.8094738218789469</v>
       </c>
       <c r="C81" t="n">
-        <v>311629371.4940768</v>
+        <v>291634461.0820731</v>
       </c>
       <c r="D81" t="n">
-        <v>1239136423.442367</v>
+        <v>1233811092.748287</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04363516577116727</v>
+        <v>0.04238989826317574</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.4297614526805771</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8094738218789469</v>
+        <v>0.8876937384881652</v>
       </c>
       <c r="C82" t="n">
-        <v>291634461.0820731</v>
+        <v>323483952.0142241</v>
       </c>
       <c r="D82" t="n">
-        <v>1233811092.748287</v>
+        <v>1356699617.01279</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04238989826317599</v>
+        <v>0.04407437636725201</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.960076140243746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8876937384881652</v>
+        <v>0.9113594171141395</v>
       </c>
       <c r="C83" t="n">
-        <v>323483952.0142241</v>
+        <v>583358153.0971215</v>
       </c>
       <c r="D83" t="n">
-        <v>1356699617.01279</v>
+        <v>1394279948.822193</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04407437636725224</v>
+        <v>0.04833909113967977</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.769981751166739</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9113594171141395</v>
+        <v>0.8481090692559722</v>
       </c>
       <c r="C84" t="n">
-        <v>583358153.0971215</v>
+        <v>249045290.381518</v>
       </c>
       <c r="D84" t="n">
-        <v>1394279948.822193</v>
+        <v>1295736344.394249</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04833909113967999</v>
+        <v>0.04883069143768133</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-7.06770577251633</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8481090692559722</v>
+        <v>0.8407468887731261</v>
       </c>
       <c r="C85" t="n">
-        <v>249045290.381518</v>
+        <v>262637096.0441832</v>
       </c>
       <c r="D85" t="n">
-        <v>1295736344.394249</v>
+        <v>1283437995.35148</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04883069143768155</v>
+        <v>0.04913485380279954</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.9491397764657239</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8407468887731261</v>
+        <v>0.7142564978675212</v>
       </c>
       <c r="C86" t="n">
-        <v>262637096.0441832</v>
+        <v>557231278.1707424</v>
       </c>
       <c r="D86" t="n">
-        <v>1283437995.35148</v>
+        <v>1090690132.763409</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04913485380279975</v>
+        <v>0.05075349602761257</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-15.01808917035263</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7142564978675212</v>
+        <v>0.5657460151613265</v>
       </c>
       <c r="C87" t="n">
-        <v>557231278.1707424</v>
+        <v>491402972.0012174</v>
       </c>
       <c r="D87" t="n">
-        <v>1090690132.763409</v>
+        <v>866681640.7485881</v>
       </c>
       <c r="E87" t="n">
-        <v>0.05075349602761277</v>
+        <v>0.06534645889583056</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-20.53823403052757</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5657460151613265</v>
+        <v>0.6768994866600048</v>
       </c>
       <c r="C88" t="n">
-        <v>491402972.0012174</v>
+        <v>378356488.0724123</v>
       </c>
       <c r="D88" t="n">
-        <v>866681640.7485881</v>
+        <v>1041315532.346621</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06534645889583071</v>
+        <v>0.06822770693383824</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20.14971627265516</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6768994866600048</v>
+        <v>0.6386111876653633</v>
       </c>
       <c r="C89" t="n">
-        <v>378356488.0724123</v>
+        <v>239270499.7095637</v>
       </c>
       <c r="D89" t="n">
-        <v>1041315532.346621</v>
+        <v>981796775.7700714</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06822770693383839</v>
+        <v>0.07300980843196611</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-5.715727339860499</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6386111876653633</v>
+        <v>0.595699688148599</v>
       </c>
       <c r="C90" t="n">
-        <v>239270499.7095637</v>
+        <v>148050740.5527643</v>
       </c>
       <c r="D90" t="n">
-        <v>981796775.7700714</v>
+        <v>916238629.0571579</v>
       </c>
       <c r="E90" t="n">
-        <v>0.07300980843196625</v>
+        <v>0.08010399552075709</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-6.67736422962818</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>0.595699688148599</v>
+        <v>0.5953741661522444</v>
       </c>
       <c r="C91" t="n">
-        <v>148050740.5527643</v>
+        <v>326523561.5297222</v>
       </c>
       <c r="D91" t="n">
-        <v>916238629.0571579</v>
+        <v>913658103.8314849</v>
       </c>
       <c r="E91" t="n">
-        <v>0.08010399552075721</v>
+        <v>0.08623748706434986</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.2816433561995124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5953741661522444</v>
+        <v>0.5929399784195445</v>
       </c>
       <c r="C92" t="n">
-        <v>326523561.5297222</v>
+        <v>252366924.8713586</v>
       </c>
       <c r="D92" t="n">
-        <v>913658103.8314849</v>
+        <v>915569667.0390816</v>
       </c>
       <c r="E92" t="n">
-        <v>0.08623748706434999</v>
+        <v>0.09180677637145081</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.2092208452571409</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5929399784195445</v>
+        <v>0.604192270910991</v>
       </c>
       <c r="C93" t="n">
-        <v>252366924.8713586</v>
+        <v>135559019.1969696</v>
       </c>
       <c r="D93" t="n">
-        <v>915569667.0390816</v>
+        <v>933199619.4821594</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09180677637145092</v>
+        <v>0.09600258531587912</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.925571922898284</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>0.604192270910991</v>
+        <v>0.5909794838056053</v>
       </c>
       <c r="C94" t="n">
-        <v>135559019.1969696</v>
+        <v>106225288.5844873</v>
       </c>
       <c r="D94" t="n">
-        <v>933199619.4821594</v>
+        <v>906850093.10563</v>
       </c>
       <c r="E94" t="n">
-        <v>0.09600258531587923</v>
+        <v>0.1001682841791215</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2.823568058370074</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5909794838056053</v>
+        <v>0.5803599092882969</v>
       </c>
       <c r="C95" t="n">
-        <v>106225288.5844873</v>
+        <v>80639141.0154278</v>
       </c>
       <c r="D95" t="n">
-        <v>906850093.10563</v>
+        <v>894859998.5188074</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1001682841791217</v>
+        <v>0.1045208546214677</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.322169416751218</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5803599092882969</v>
+        <v>0.5838036129889016</v>
       </c>
       <c r="C96" t="n">
-        <v>80639141.0154278</v>
+        <v>84423713.41013841</v>
       </c>
       <c r="D96" t="n">
-        <v>894859998.5188074</v>
+        <v>899884391.4052366</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1045208546214678</v>
+        <v>0.108378846693994</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5614725090791417</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5838036129889016</v>
+        <v>0.6018185750243853</v>
       </c>
       <c r="C97" t="n">
-        <v>84423713.41013841</v>
+        <v>151065894.8026358</v>
       </c>
       <c r="D97" t="n">
-        <v>899884391.4052366</v>
+        <v>927896172.7263594</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1083788466939941</v>
+        <v>0.1110999262347727</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.11282000095372</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6018185750243853</v>
+        <v>0.5526249937743545</v>
       </c>
       <c r="C98" t="n">
-        <v>151065894.8026358</v>
+        <v>119526674.886745</v>
       </c>
       <c r="D98" t="n">
-        <v>927896172.7263594</v>
+        <v>860760936.1065382</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1110999262347728</v>
+        <v>0.1157758221056411</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-7.235209993652991</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5526249937743545</v>
+        <v>0.5386073894110681</v>
       </c>
       <c r="C99" t="n">
-        <v>119526674.886745</v>
+        <v>153706213.5267043</v>
       </c>
       <c r="D99" t="n">
-        <v>860760936.1065382</v>
+        <v>838371846.7152243</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1157758221056412</v>
+        <v>0.1206047761763412</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-2.601081026351637</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5386073894110681</v>
+        <v>0.5562744821916775</v>
       </c>
       <c r="C100" t="n">
-        <v>153706213.5267043</v>
+        <v>133699472.0042618</v>
       </c>
       <c r="D100" t="n">
-        <v>838371846.7152243</v>
+        <v>868004023.48814</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1206047761763413</v>
+        <v>0.1238427832999121</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.534490917009658</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5562744821916775</v>
+        <v>0.5739891880164049</v>
       </c>
       <c r="C101" t="n">
-        <v>133699472.0042618</v>
+        <v>114137392.3940036</v>
       </c>
       <c r="D101" t="n">
-        <v>868004023.48814</v>
+        <v>894253566.8728294</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1238427832999122</v>
+        <v>0.1262588116223976</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3.024126925034709</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5739891880164049</v>
+        <v>0.5676137465233253</v>
       </c>
       <c r="C102" t="n">
-        <v>114137392.3940036</v>
+        <v>135914085.1315122</v>
       </c>
       <c r="D102" t="n">
-        <v>894253566.8728294</v>
+        <v>882997658.3115385</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1262588116223977</v>
+        <v>0.1282506646487385</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-1.2586931691704</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5676137465233253</v>
+        <v>0.5682720355012192</v>
       </c>
       <c r="C103" t="n">
-        <v>135914085.1315122</v>
+        <v>87394530.86560038</v>
       </c>
       <c r="D103" t="n">
-        <v>882997658.3115385</v>
+        <v>884722405.5551958</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1282506646487386</v>
+        <v>0.1295055537889249</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.195328631669911</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5682720355012192</v>
+        <v>0.5665157634429407</v>
       </c>
       <c r="C104" t="n">
-        <v>87394530.86560038</v>
+        <v>79952635.18441474</v>
       </c>
       <c r="D104" t="n">
-        <v>884722405.5551958</v>
+        <v>881328210.0560884</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1295055537889249</v>
+        <v>0.1305988015306807</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.3836452516399635</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5665157634429407</v>
+        <v>0.5722114779992954</v>
       </c>
       <c r="C105" t="n">
-        <v>79952635.18441474</v>
+        <v>94267341.29115342</v>
       </c>
       <c r="D105" t="n">
-        <v>881328210.0560884</v>
+        <v>893512808.0872053</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1305988015306807</v>
+        <v>0.1304265943462153</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.382526724106725</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5722114779992954</v>
+        <v>0.555913756919405</v>
       </c>
       <c r="C106" t="n">
-        <v>94267341.29115342</v>
+        <v>113571898.2308047</v>
       </c>
       <c r="D106" t="n">
-        <v>893512808.0872053</v>
+        <v>865731293.0272377</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1304265943462154</v>
+        <v>0.129840755834082</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-3.109246426969647</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>0.555913756919405</v>
+        <v>0.564331133569737</v>
       </c>
       <c r="C107" t="n">
-        <v>113571898.2308047</v>
+        <v>96877984.66131407</v>
       </c>
       <c r="D107" t="n">
-        <v>865731293.0272377</v>
+        <v>879865161.8124799</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1298407558340821</v>
+        <v>0.1260597285176756</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.632593034245033</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>0.564331133569737</v>
+        <v>0.5933371693546271</v>
       </c>
       <c r="C108" t="n">
-        <v>96877984.66131407</v>
+        <v>116861747.4953845</v>
       </c>
       <c r="D108" t="n">
-        <v>879865161.8124799</v>
+        <v>926895295.5711428</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1260597285176756</v>
+        <v>0.1200217071693423</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.345152393780794</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5933371693546271</v>
+        <v>0.5804213069466722</v>
       </c>
       <c r="C109" t="n">
-        <v>116861747.4953845</v>
+        <v>95594060.12789752</v>
       </c>
       <c r="D109" t="n">
-        <v>926895295.5711428</v>
+        <v>906023009.505043</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1200217071693424</v>
+        <v>0.1137482822580321</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.251849390738192</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5804213069466722</v>
+        <v>0.609299744090006</v>
       </c>
       <c r="C110" t="n">
-        <v>95594060.12789752</v>
+        <v>127715721.340362</v>
       </c>
       <c r="D110" t="n">
-        <v>906023009.505043</v>
+        <v>950753320.0150309</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1137482822580322</v>
+        <v>0.1092266684930765</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4.936994981443554</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>0.609299744090006</v>
+        <v>0.5803727901920841</v>
       </c>
       <c r="C111" t="n">
-        <v>127715721.340362</v>
+        <v>89434508.33761501</v>
       </c>
       <c r="D111" t="n">
-        <v>950753320.0150309</v>
+        <v>910351177.7173405</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1092266684930765</v>
+        <v>0.1044832349979239</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-4.249487374606453</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5803727901920841</v>
+        <v>0.5926998838919854</v>
       </c>
       <c r="C112" t="n">
-        <v>89434508.33761501</v>
+        <v>69001172.82239665</v>
       </c>
       <c r="D112" t="n">
-        <v>910351177.7173405</v>
+        <v>926268800.5197191</v>
       </c>
       <c r="E112" t="n">
-        <v>0.104483234997924</v>
+        <v>0.09226428443636933</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.748514550427815</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5926998838919854</v>
+        <v>0.6206812384923008</v>
       </c>
       <c r="C113" t="n">
-        <v>69001172.82239665</v>
+        <v>222436058.1769208</v>
       </c>
       <c r="D113" t="n">
-        <v>926268800.5197191</v>
+        <v>968949390.2842273</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09226428443636943</v>
+        <v>0.07369166733985368</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.607797406169833</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6206812384923008</v>
+        <v>0.6162461815726168</v>
       </c>
       <c r="C114" t="n">
-        <v>222436058.1769208</v>
+        <v>136801482.2136356</v>
       </c>
       <c r="D114" t="n">
-        <v>968949390.2842273</v>
+        <v>960822265.7932571</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0736916673398538</v>
+        <v>0.05808425640061952</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.8387563450126256</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6162461815726168</v>
+        <v>0.5850702761140562</v>
       </c>
       <c r="C115" t="n">
-        <v>136801482.2136356</v>
+        <v>143996401.9285971</v>
       </c>
       <c r="D115" t="n">
-        <v>960822265.7932571</v>
+        <v>914134307.2550843</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05808425640061969</v>
+        <v>0.03608817099002917</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-4.859167007295273</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5850702761140562</v>
+        <v>0.5943267459984448</v>
       </c>
       <c r="C116" t="n">
-        <v>143996401.9285971</v>
+        <v>97604157.16707695</v>
       </c>
       <c r="D116" t="n">
-        <v>914134307.2550843</v>
+        <v>934664580.1235464</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03608817099002944</v>
+        <v>0.02763622967513003</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.245870514378723</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5943267459984448</v>
+        <v>0.5823959053108952</v>
       </c>
       <c r="C117" t="n">
-        <v>97604157.16707695</v>
+        <v>83003788.82800071</v>
       </c>
       <c r="D117" t="n">
-        <v>934664580.1235464</v>
+        <v>915425093.0843856</v>
       </c>
       <c r="E117" t="n">
-        <v>0.02763622967513038</v>
+        <v>0.02735683131785428</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-2.058437588018758</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5823959053108952</v>
+        <v>0.5849983220870952</v>
       </c>
       <c r="C118" t="n">
-        <v>83003788.82800071</v>
+        <v>65485554.02489563</v>
       </c>
       <c r="D118" t="n">
-        <v>915425093.0843856</v>
+        <v>917504660.1326113</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02735683131785463</v>
+        <v>0.02155836260270595</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.2271695482170877</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5849983220870952</v>
+        <v>0.5681447813632194</v>
       </c>
       <c r="C119" t="n">
-        <v>65485554.02489563</v>
+        <v>66620694.72038282</v>
       </c>
       <c r="D119" t="n">
-        <v>917504660.1326113</v>
+        <v>892275108.1998144</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02155836260270639</v>
+        <v>0.01918646117792967</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-2.749800957866555</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5681447813632194</v>
+        <v>0.5598785655633383</v>
       </c>
       <c r="C120" t="n">
-        <v>66620694.72038282</v>
+        <v>89888950.39732495</v>
       </c>
       <c r="D120" t="n">
-        <v>892275108.1998144</v>
+        <v>879977867.9212072</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01918646117793017</v>
+        <v>0.01943789228944654</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-1.378189323628809</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5598785655633383</v>
+        <v>0.5676588916565518</v>
       </c>
       <c r="C121" t="n">
-        <v>89888950.39732495</v>
+        <v>136976499.90892</v>
       </c>
       <c r="D121" t="n">
-        <v>879977867.9212072</v>
+        <v>893286334.6206423</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01943789228944704</v>
+        <v>0.01939579493984846</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.512363797384353</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5676588916565518</v>
+        <v>0.555444511346606</v>
       </c>
       <c r="C122" t="n">
-        <v>136976499.90892</v>
+        <v>128436011.4265953</v>
       </c>
       <c r="D122" t="n">
-        <v>893286334.6206423</v>
+        <v>873464733.5594405</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01939579493984895</v>
+        <v>0.01975131727278722</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-2.218952679895136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>0.555444511346606</v>
+        <v>0.5410360303796058</v>
       </c>
       <c r="C123" t="n">
-        <v>128436011.4265953</v>
+        <v>96575788.3813061</v>
       </c>
       <c r="D123" t="n">
-        <v>873464733.5594405</v>
+        <v>851517569.8330529</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0197513172727877</v>
+        <v>0.02032545075955208</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-2.512655964591848</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5410360303796058</v>
+        <v>0.4699925965700999</v>
       </c>
       <c r="C124" t="n">
-        <v>96575788.3813061</v>
+        <v>146896288.7997844</v>
       </c>
       <c r="D124" t="n">
-        <v>851517569.8330529</v>
+        <v>736133009.1801986</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02032545075955255</v>
+        <v>0.02798407251447618</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-13.55046152194798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4699925965700999</v>
+        <v>0.4826450636900333</v>
       </c>
       <c r="C125" t="n">
-        <v>146896288.7997844</v>
+        <v>106319398.3402413</v>
       </c>
       <c r="D125" t="n">
-        <v>736133009.1801986</v>
+        <v>758634975.7927324</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02798407251447653</v>
+        <v>0.03241160382804604</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.056780001971826</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4826450636900333</v>
+        <v>0.4749048697662445</v>
       </c>
       <c r="C126" t="n">
-        <v>106319398.3402413</v>
+        <v>67109864.3840787</v>
       </c>
       <c r="D126" t="n">
-        <v>758634975.7927324</v>
+        <v>747157754.9500998</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03241160382804634</v>
+        <v>0.03658952320714699</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-1.512877893698406</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4749048697662445</v>
+        <v>0.4313075539229764</v>
       </c>
       <c r="C127" t="n">
-        <v>67109864.3840787</v>
+        <v>96319982.98590448</v>
       </c>
       <c r="D127" t="n">
-        <v>747157754.9500998</v>
+        <v>679700994.868052</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03658952320714725</v>
+        <v>0.04342616436182006</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-9.028449431881091</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4313075539229764</v>
+        <v>0.4529896140303382</v>
       </c>
       <c r="C128" t="n">
-        <v>96319982.98590448</v>
+        <v>78029913.13511868</v>
       </c>
       <c r="D128" t="n">
-        <v>679700994.868052</v>
+        <v>711520032.1302098</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04342616436182028</v>
+        <v>0.04763473801162977</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.681328628676606</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4529896140303382</v>
+        <v>0.4419807425256263</v>
       </c>
       <c r="C129" t="n">
-        <v>78029913.13511868</v>
+        <v>74128969.29769301</v>
       </c>
       <c r="D129" t="n">
-        <v>711520032.1302098</v>
+        <v>693582171.4280363</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04763473801162997</v>
+        <v>0.05198385524537691</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.521061936720115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4419807425256263</v>
+        <v>0.4467861544779692</v>
       </c>
       <c r="C130" t="n">
-        <v>74128969.29769301</v>
+        <v>90945633.16049276</v>
       </c>
       <c r="D130" t="n">
-        <v>693582171.4280363</v>
+        <v>699836928.7554795</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05198385524537709</v>
+        <v>0.05551990463736513</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9018048019551861</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4467861544779692</v>
+        <v>0.4577822013247574</v>
       </c>
       <c r="C131" t="n">
-        <v>90945633.16049276</v>
+        <v>88963175.44343242</v>
       </c>
       <c r="D131" t="n">
-        <v>699836928.7554795</v>
+        <v>719466943.1206121</v>
       </c>
       <c r="E131" t="n">
-        <v>0.05551990463736531</v>
+        <v>0.05779905676531865</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.804941202522815</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4577822013247574</v>
+        <v>0.4511233289444735</v>
       </c>
       <c r="C132" t="n">
-        <v>88963175.44343242</v>
+        <v>46876275.56210812</v>
       </c>
       <c r="D132" t="n">
-        <v>719466943.1206121</v>
+        <v>709450571.8677164</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05779905676531882</v>
+        <v>0.06017335148791351</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-1.392193393827212</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4511233289444735</v>
+        <v>0.4439008169591078</v>
       </c>
       <c r="C133" t="n">
-        <v>46876275.56210812</v>
+        <v>57155572.12000386</v>
       </c>
       <c r="D133" t="n">
-        <v>709450571.8677164</v>
+        <v>697425757.2605057</v>
       </c>
       <c r="E133" t="n">
-        <v>0.06017335148791367</v>
+        <v>0.06255878952316175</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-1.694947482465758</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4439008169591078</v>
+        <v>0.4449266016081104</v>
       </c>
       <c r="C134" t="n">
-        <v>57155572.12000386</v>
+        <v>73232871.50963689</v>
       </c>
       <c r="D134" t="n">
-        <v>697425757.2605057</v>
+        <v>698058226.593694</v>
       </c>
       <c r="E134" t="n">
-        <v>0.06255878952316191</v>
+        <v>0.06456400692811273</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.09068625966335286</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4449266016081104</v>
+        <v>0.4394719289518277</v>
       </c>
       <c r="C135" t="n">
-        <v>73232871.50963689</v>
+        <v>83955321.18345715</v>
       </c>
       <c r="D135" t="n">
-        <v>698058226.593694</v>
+        <v>689509964.7112601</v>
       </c>
       <c r="E135" t="n">
-        <v>0.06456400692811287</v>
+        <v>0.06638440374198633</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1.224577199547772</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4394719289518277</v>
+        <v>0.4121981838372758</v>
       </c>
       <c r="C136" t="n">
-        <v>83955321.18345715</v>
+        <v>120427256.957862</v>
       </c>
       <c r="D136" t="n">
-        <v>689509964.7112601</v>
+        <v>647016093.5952915</v>
       </c>
       <c r="E136" t="n">
-        <v>0.06638440374198648</v>
+        <v>0.06953587601668486</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-6.162908919490873</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4121981838372758</v>
+        <v>0.4022228342366897</v>
       </c>
       <c r="C137" t="n">
-        <v>120427256.957862</v>
+        <v>109286057.8941834</v>
       </c>
       <c r="D137" t="n">
-        <v>647016093.5952915</v>
+        <v>632516357.5264378</v>
       </c>
       <c r="E137" t="n">
-        <v>0.069535876016685</v>
+        <v>0.07259567181286446</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-2.241016291926012</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4022228342366897</v>
+        <v>0.3882275568816395</v>
       </c>
       <c r="C138" t="n">
-        <v>109286057.8941834</v>
+        <v>122921989.6314026</v>
       </c>
       <c r="D138" t="n">
-        <v>632516357.5264378</v>
+        <v>610460906.338853</v>
       </c>
       <c r="E138" t="n">
-        <v>0.07259567181286458</v>
+        <v>0.07501762649928098</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-3.486937677601942</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3882275568816395</v>
+        <v>0.3832938747342467</v>
       </c>
       <c r="C139" t="n">
-        <v>122921989.6314026</v>
+        <v>86753289.76256536</v>
       </c>
       <c r="D139" t="n">
-        <v>610460906.338853</v>
+        <v>602308945.6564497</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07501762649928111</v>
+        <v>0.07746893483191075</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-1.335378006643129</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3832938747342467</v>
+        <v>0.3893640078976889</v>
       </c>
       <c r="C140" t="n">
-        <v>86753289.76256536</v>
+        <v>91044695.75045204</v>
       </c>
       <c r="D140" t="n">
-        <v>602308945.6564497</v>
+        <v>612761826.2111996</v>
       </c>
       <c r="E140" t="n">
-        <v>0.07746893483191089</v>
+        <v>0.07776884529070262</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.735468255972439</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3893640078976889</v>
+        <v>0.4101847147167794</v>
       </c>
       <c r="C141" t="n">
-        <v>91044695.75045204</v>
+        <v>124903029.7360481</v>
       </c>
       <c r="D141" t="n">
-        <v>612761826.2111996</v>
+        <v>644079962.059678</v>
       </c>
       <c r="E141" t="n">
-        <v>0.07776884529070274</v>
+        <v>0.0778156561822233</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.110980238785956</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4101847147167794</v>
+        <v>0.418543235907447</v>
       </c>
       <c r="C142" t="n">
-        <v>124903029.7360481</v>
+        <v>103416613.8209849</v>
       </c>
       <c r="D142" t="n">
-        <v>644079962.059678</v>
+        <v>654752620.3932201</v>
       </c>
       <c r="E142" t="n">
-        <v>0.07781565618222343</v>
+        <v>0.0766131376216924</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.657039337074306</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>0.418543235907447</v>
+        <v>0.4335619899828191</v>
       </c>
       <c r="C143" t="n">
-        <v>103416613.8209849</v>
+        <v>148759153.6866744</v>
       </c>
       <c r="D143" t="n">
-        <v>654752620.3932201</v>
+        <v>680411149.5016217</v>
       </c>
       <c r="E143" t="n">
-        <v>0.07661313762169253</v>
+        <v>0.07290329808339202</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.918812740755762</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4335619899828191</v>
+        <v>0.4264243310029376</v>
       </c>
       <c r="C144" t="n">
-        <v>148759153.6866744</v>
+        <v>129344958.3088139</v>
       </c>
       <c r="D144" t="n">
-        <v>680411149.5016217</v>
+        <v>669041009.7925123</v>
       </c>
       <c r="E144" t="n">
-        <v>0.07290329808339215</v>
+        <v>0.06888907290633328</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-1.671068987837376</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4264243310029376</v>
+        <v>0.4326096917347507</v>
       </c>
       <c r="C145" t="n">
-        <v>129344958.3088139</v>
+        <v>121627454.2091299</v>
       </c>
       <c r="D145" t="n">
-        <v>669041009.7925123</v>
+        <v>678534378.9068556</v>
       </c>
       <c r="E145" t="n">
-        <v>0.06888907290633342</v>
+        <v>0.06602988936660885</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.418951749652453</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4326096917347507</v>
+        <v>0.4557715838103132</v>
       </c>
       <c r="C146" t="n">
-        <v>121627454.2091299</v>
+        <v>342529105.5273656</v>
       </c>
       <c r="D146" t="n">
-        <v>678534378.9068556</v>
+        <v>715347676.6233083</v>
       </c>
       <c r="E146" t="n">
-        <v>0.06602988936660899</v>
+        <v>0.06171011110724779</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5.425413783124777</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4557715838103132</v>
+        <v>0.4953133530210343</v>
       </c>
       <c r="C147" t="n">
-        <v>342529105.5273656</v>
+        <v>349129213.4268959</v>
       </c>
       <c r="D147" t="n">
-        <v>715347676.6233083</v>
+        <v>781603357.8204839</v>
       </c>
       <c r="E147" t="n">
-        <v>0.06171011110724794</v>
+        <v>0.05792950111439547</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.262025077082182</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4953133530210343</v>
+        <v>0.5179870970721114</v>
       </c>
       <c r="C148" t="n">
-        <v>349129213.4268959</v>
+        <v>400191864.5340809</v>
       </c>
       <c r="D148" t="n">
-        <v>781603357.8204839</v>
+        <v>816851380.631223</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05792950111439563</v>
+        <v>0.05419863795203192</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4.509707188186707</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5179870970721114</v>
+        <v>0.519535278409094</v>
       </c>
       <c r="C149" t="n">
-        <v>400191864.5340809</v>
+        <v>195122541.2521126</v>
       </c>
       <c r="D149" t="n">
-        <v>816851380.631223</v>
+        <v>814726234.2106644</v>
       </c>
       <c r="E149" t="n">
-        <v>0.05419863795203209</v>
+        <v>0.05150951065884264</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.2601631668806559</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>0.519535278409094</v>
+        <v>0.523708213462085</v>
       </c>
       <c r="C150" t="n">
-        <v>195122541.2521126</v>
+        <v>142327282.2833823</v>
       </c>
       <c r="D150" t="n">
-        <v>814726234.2106644</v>
+        <v>821046410.2859741</v>
       </c>
       <c r="E150" t="n">
-        <v>0.05150951065884284</v>
+        <v>0.04942965042627368</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.7757423058106117</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>0.523708213462085</v>
+        <v>0.5357655300170217</v>
       </c>
       <c r="C151" t="n">
-        <v>142327282.2833823</v>
+        <v>239326932.1130685</v>
       </c>
       <c r="D151" t="n">
-        <v>821046410.2859741</v>
+        <v>841891769.2450725</v>
       </c>
       <c r="E151" t="n">
-        <v>0.04942965042627388</v>
+        <v>0.04726376428082363</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.53887705956084</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5357655300170217</v>
+        <v>0.6210098043783557</v>
       </c>
       <c r="C152" t="n">
-        <v>239326932.1130685</v>
+        <v>401903160.6367828</v>
       </c>
       <c r="D152" t="n">
-        <v>841891769.2450725</v>
+        <v>971390441.9531795</v>
       </c>
       <c r="E152" t="n">
-        <v>0.04726376428082384</v>
+        <v>0.05316925669932895</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.38186705688178</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6210098043783557</v>
+        <v>0.6665793119400814</v>
       </c>
       <c r="C153" t="n">
-        <v>401903160.6367828</v>
+        <v>696262798.1094346</v>
       </c>
       <c r="D153" t="n">
-        <v>971390441.9531795</v>
+        <v>1050018338.968045</v>
       </c>
       <c r="E153" t="n">
-        <v>0.05316925669932913</v>
+        <v>0.06379624454220684</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8.094365933513625</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6665793119400814</v>
+        <v>0.7259903778585949</v>
       </c>
       <c r="C154" t="n">
-        <v>696262798.1094346</v>
+        <v>580462353.6768078</v>
       </c>
       <c r="D154" t="n">
-        <v>1050018338.968045</v>
+        <v>1139515681.468645</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06379624454220699</v>
+        <v>0.07993506599360233</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.523407561486728</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7259903778585949</v>
+        <v>0.7006948980024911</v>
       </c>
       <c r="C155" t="n">
-        <v>580462353.6768078</v>
+        <v>419509560.5113752</v>
       </c>
       <c r="D155" t="n">
-        <v>1139515681.468645</v>
+        <v>1100299188.565461</v>
       </c>
       <c r="E155" t="n">
-        <v>0.07993506599360244</v>
+        <v>0.09028587915804069</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3.441505329057049</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7006948980024911</v>
+        <v>0.7024726663192289</v>
       </c>
       <c r="C156" t="n">
-        <v>419509560.5113752</v>
+        <v>335471437.0112616</v>
       </c>
       <c r="D156" t="n">
-        <v>1100299188.565461</v>
+        <v>1101770156.240121</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0902858791580408</v>
+        <v>0.09913135022780424</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1336879723212059</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7024726663192289</v>
+        <v>0.6927708898425008</v>
       </c>
       <c r="C157" t="n">
-        <v>335471437.0112616</v>
+        <v>453391692.1113275</v>
       </c>
       <c r="D157" t="n">
-        <v>1101770156.240121</v>
+        <v>1090709273.678146</v>
       </c>
       <c r="E157" t="n">
-        <v>0.09913135022780434</v>
+        <v>0.1054730033742586</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-1.003919238448103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6927708898425008</v>
+        <v>0.7054362460829194</v>
       </c>
       <c r="C158" t="n">
-        <v>453391692.1113275</v>
+        <v>221030521.6093612</v>
       </c>
       <c r="D158" t="n">
-        <v>1090709273.678146</v>
+        <v>1108718941.84375</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1054730033742587</v>
+        <v>0.1119250372099857</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.651188689802829</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7054362460829194</v>
+        <v>0.7706010071629538</v>
       </c>
       <c r="C159" t="n">
-        <v>221030521.6093612</v>
+        <v>265530320.3774548</v>
       </c>
       <c r="D159" t="n">
-        <v>1108718941.84375</v>
+        <v>1213868615.955274</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1119250372099858</v>
+        <v>0.1214385071526955</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9.483889031124892</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7706010071629538</v>
+        <v>0.7924991165988472</v>
       </c>
       <c r="C160" t="n">
-        <v>265530320.3774548</v>
+        <v>477052710.7839542</v>
       </c>
       <c r="D160" t="n">
-        <v>1213868615.955274</v>
+        <v>1248079800.210643</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1214385071526956</v>
+        <v>0.1308940749694361</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.818359730673614</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7924991165988472</v>
+        <v>0.8103352011535562</v>
       </c>
       <c r="C161" t="n">
-        <v>477052710.7839542</v>
+        <v>303648336.3778459</v>
       </c>
       <c r="D161" t="n">
-        <v>1248079800.210643</v>
+        <v>1278626349.117856</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1308940749694362</v>
+        <v>0.1401212510565598</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.447483638630943</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8103352011535562</v>
+        <v>0.7951414498642084</v>
       </c>
       <c r="C162" t="n">
-        <v>303648336.3778459</v>
+        <v>200579420.5989098</v>
       </c>
       <c r="D162" t="n">
-        <v>1278626349.117856</v>
+        <v>1260751782.954878</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1401212510565598</v>
+        <v>0.1467632813996997</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-1.397950712912333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7951414498642084</v>
+        <v>0.7269724191510137</v>
       </c>
       <c r="C163" t="n">
-        <v>200579420.5989098</v>
+        <v>162705024.2430214</v>
       </c>
       <c r="D163" t="n">
-        <v>1260751782.954878</v>
+        <v>1153498819.325189</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1467632813996998</v>
+        <v>0.1488873326971108</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-8.507064204050984</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7269724191510137</v>
+        <v>0.7594659854468252</v>
       </c>
       <c r="C164" t="n">
-        <v>162705024.2430214</v>
+        <v>253528875.2977138</v>
       </c>
       <c r="D164" t="n">
-        <v>1153498819.325189</v>
+        <v>1199623704.883189</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1488873326971109</v>
+        <v>0.1516994442113907</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.998693781497242</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7594659854468252</v>
+        <v>0.7450326625365538</v>
       </c>
       <c r="C165" t="n">
-        <v>253528875.2977138</v>
+        <v>204068213.685882</v>
       </c>
       <c r="D165" t="n">
-        <v>1199623704.883189</v>
+        <v>1178176109.148503</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1516994442113908</v>
+        <v>0.1529919392470328</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-1.787860280468123</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7450326625365538</v>
+        <v>0.7462100872329083</v>
       </c>
       <c r="C166" t="n">
-        <v>204068213.685882</v>
+        <v>159217183.5982055</v>
       </c>
       <c r="D166" t="n">
-        <v>1178176109.148503</v>
+        <v>1184811740.302431</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1529919392470329</v>
+        <v>0.1526135635622026</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.5632121634790543</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7462100872329083</v>
+        <v>0.7351251593797185</v>
       </c>
       <c r="C167" t="n">
-        <v>159217183.5982055</v>
+        <v>164314190.8691955</v>
       </c>
       <c r="D167" t="n">
-        <v>1184811740.302431</v>
+        <v>1173751550.176325</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1526135635622027</v>
+        <v>0.1505944845551926</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.933497681520512</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7351251593797185</v>
+        <v>0.8035007275622561</v>
       </c>
       <c r="C168" t="n">
-        <v>164314190.8691955</v>
+        <v>370311225.5769563</v>
       </c>
       <c r="D168" t="n">
-        <v>1173751550.176325</v>
+        <v>1265562706.90446</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1505944845551927</v>
+        <v>0.1494543712754872</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7.822026451368069</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8035007275622561</v>
+        <v>0.7261151142768502</v>
       </c>
       <c r="C169" t="n">
-        <v>370311225.5769563</v>
+        <v>265083164.3384569</v>
       </c>
       <c r="D169" t="n">
-        <v>1265562706.90446</v>
+        <v>1151033730.03936</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1494543712754872</v>
+        <v>0.1441608368693114</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-9.049648527115329</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7261151142768502</v>
+        <v>0.7326027075146557</v>
       </c>
       <c r="C170" t="n">
-        <v>265083164.3384569</v>
+        <v>121572644.6256033</v>
       </c>
       <c r="D170" t="n">
-        <v>1151033730.03936</v>
+        <v>1159609912.034766</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1441608368693114</v>
+        <v>0.1382177761530612</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.7450852022480081</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7326027075146557</v>
+        <v>0.767413005698255</v>
       </c>
       <c r="C171" t="n">
-        <v>121572644.6256033</v>
+        <v>251562840.9243598</v>
       </c>
       <c r="D171" t="n">
-        <v>1159609912.034766</v>
+        <v>1219149217.053332</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1382177761530613</v>
+        <v>0.1332487118955842</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.13442532705608</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>0.767413005698255</v>
+        <v>0.748247807353261</v>
       </c>
       <c r="C172" t="n">
-        <v>251562840.9243598</v>
+        <v>192430911.794815</v>
       </c>
       <c r="D172" t="n">
-        <v>1219149217.053332</v>
+        <v>1186910186.840121</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1332487118955843</v>
+        <v>0.1269922342345972</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-2.644387558327965</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>0.748247807353261</v>
+        <v>0.76685173522664</v>
       </c>
       <c r="C173" t="n">
-        <v>192430911.794815</v>
+        <v>186880441.4553511</v>
       </c>
       <c r="D173" t="n">
-        <v>1186910186.840121</v>
+        <v>1220345913.1631</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1269922342345973</v>
+        <v>0.1208865607855893</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.817039291910817</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>0.76685173522664</v>
+        <v>0.774780956235227</v>
       </c>
       <c r="C174" t="n">
-        <v>186880441.4553511</v>
+        <v>190575763.4931654</v>
       </c>
       <c r="D174" t="n">
-        <v>1220345913.1631</v>
+        <v>1362267894.763631</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1208865607855894</v>
+        <v>0.1129966614218456</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11.62965189375478</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>0.774780956235227</v>
+        <v>0.7366959516734742</v>
       </c>
       <c r="C175" t="n">
-        <v>190575763.4931654</v>
+        <v>194405792.648026</v>
       </c>
       <c r="D175" t="n">
-        <v>1362267894.763631</v>
+        <v>1296838798.381734</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1129966614218457</v>
+        <v>0.1029315478821401</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-4.8029537092812</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7366959516734742</v>
+        <v>0.7073393063016788</v>
       </c>
       <c r="C176" t="n">
-        <v>194405792.648026</v>
+        <v>151500863.1027952</v>
       </c>
       <c r="D176" t="n">
-        <v>1296838798.381734</v>
+        <v>1245927717.265486</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1029315478821402</v>
+        <v>0.09264182731414937</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-3.925783310907882</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7073393063016788</v>
+        <v>0.9109238741790413</v>
       </c>
       <c r="C177" t="n">
-        <v>151500863.1027952</v>
+        <v>604060735.5211576</v>
       </c>
       <c r="D177" t="n">
-        <v>1245927717.265486</v>
+        <v>1607358080.995256</v>
       </c>
       <c r="E177" t="n">
-        <v>0.09264182731414947</v>
+        <v>0.09177955167409416</v>
+      </c>
+      <c r="F177" t="n">
+        <v>29.00893516704355</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9109238741790413</v>
+        <v>0.8546603628390342</v>
       </c>
       <c r="C178" t="n">
-        <v>604060735.5211576</v>
+        <v>783505692.2810124</v>
       </c>
       <c r="D178" t="n">
-        <v>1607358080.995256</v>
+        <v>1505079503.614023</v>
       </c>
       <c r="E178" t="n">
-        <v>0.09177955167409427</v>
+        <v>0.08725588843034503</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-6.363148236260052</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8546603628390342</v>
+        <v>0.7296590960593806</v>
       </c>
       <c r="C179" t="n">
-        <v>783505692.2810124</v>
+        <v>339893490.0944362</v>
       </c>
       <c r="D179" t="n">
-        <v>1505079503.614023</v>
+        <v>1282819880.067782</v>
       </c>
       <c r="E179" t="n">
-        <v>0.08725588843034514</v>
+        <v>0.07798434716218348</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-14.76730119655126</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7296590960593806</v>
+        <v>0.7319981432351554</v>
       </c>
       <c r="C180" t="n">
-        <v>339893490.0944362</v>
+        <v>210241527.7166364</v>
       </c>
       <c r="D180" t="n">
-        <v>1282819880.067782</v>
+        <v>1297268780.215262</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0779843471621836</v>
+        <v>0.06715277750791067</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.126338964026408</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>0.7319981432351554</v>
+        <v>0.751151113606972</v>
       </c>
       <c r="C181" t="n">
-        <v>210241527.7166364</v>
+        <v>148095139.2493323</v>
       </c>
       <c r="D181" t="n">
-        <v>1297268780.215262</v>
+        <v>1326620886.1553</v>
       </c>
       <c r="E181" t="n">
-        <v>0.06715277750791082</v>
+        <v>0.05487067318918884</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.262607902671299</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>0.751151113606972</v>
+        <v>0.7042033628588904</v>
       </c>
       <c r="C182" t="n">
-        <v>148095139.2493323</v>
+        <v>193546390.1676818</v>
       </c>
       <c r="D182" t="n">
-        <v>1326620886.1553</v>
+        <v>1244111001.313469</v>
       </c>
       <c r="E182" t="n">
-        <v>0.05487067318918902</v>
+        <v>0.05013203865386652</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-6.219552677250062</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7042033628588904</v>
+        <v>0.6861939176797121</v>
       </c>
       <c r="C183" t="n">
-        <v>193546390.1676818</v>
+        <v>188813502.7884161</v>
       </c>
       <c r="D183" t="n">
-        <v>1244111001.313469</v>
+        <v>1212946457.804263</v>
       </c>
       <c r="E183" t="n">
-        <v>0.05013203865386671</v>
+        <v>0.04911447647982851</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-2.50496486859324</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6861939176797121</v>
+        <v>0.7169311800630292</v>
       </c>
       <c r="C184" t="n">
-        <v>188813502.7884161</v>
+        <v>284845762.5275063</v>
       </c>
       <c r="D184" t="n">
-        <v>1212946457.804263</v>
+        <v>1266806996.719338</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0491144764798287</v>
+        <v>0.04930338339491757</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4.440471264706547</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7169311800630292</v>
+        <v>0.7652057411661396</v>
       </c>
       <c r="C185" t="n">
-        <v>284845762.5275063</v>
+        <v>344511175.354197</v>
       </c>
       <c r="D185" t="n">
-        <v>1266806996.719338</v>
+        <v>1346195694.998335</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04930338339491776</v>
+        <v>0.04842970343256798</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.266834528431819</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>0.7652057411661396</v>
+        <v>0.7234652442278425</v>
       </c>
       <c r="C186" t="n">
-        <v>344511175.354197</v>
+        <v>476633873.6415864</v>
       </c>
       <c r="D186" t="n">
-        <v>1346195694.998335</v>
+        <v>1277206393.011975</v>
       </c>
       <c r="E186" t="n">
-        <v>0.04842970343256818</v>
+        <v>0.04781901989350095</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-5.124760259053229</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7234652442278425</v>
+        <v>0.7627942844165707</v>
       </c>
       <c r="C187" t="n">
-        <v>476633873.6415864</v>
+        <v>327013325.9487411</v>
       </c>
       <c r="D187" t="n">
-        <v>1277206393.011975</v>
+        <v>1348461761.865933</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04781901989350115</v>
+        <v>0.0464199447106063</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5.579001893806623</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7627942844165707</v>
+        <v>0.7634345016520303</v>
       </c>
       <c r="C188" t="n">
-        <v>327013325.9487411</v>
+        <v>202539880.4080996</v>
       </c>
       <c r="D188" t="n">
-        <v>1348461761.865933</v>
+        <v>1347012472.152791</v>
       </c>
       <c r="E188" t="n">
-        <v>0.04641994471060651</v>
+        <v>0.04542776563647037</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.1074772569847671</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7634345016520303</v>
+        <v>0.7805864232279016</v>
       </c>
       <c r="C189" t="n">
-        <v>202539880.4080996</v>
+        <v>353572688.6968722</v>
       </c>
       <c r="D189" t="n">
-        <v>1347012472.152791</v>
+        <v>1382698738.301148</v>
       </c>
       <c r="E189" t="n">
-        <v>0.04542776563647059</v>
+        <v>0.04555826770350868</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.649289957302603</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7805864232279016</v>
+        <v>0.8279417555084118</v>
       </c>
       <c r="C190" t="n">
-        <v>353572688.6968722</v>
+        <v>658262781.3639886</v>
       </c>
       <c r="D190" t="n">
-        <v>1382698738.301148</v>
+        <v>1462422043.861691</v>
       </c>
       <c r="E190" t="n">
-        <v>0.04555826770350889</v>
+        <v>0.04690937474360404</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5.765775533902251</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8279417555084118</v>
+        <v>0.7818291181013586</v>
       </c>
       <c r="C191" t="n">
-        <v>658262781.3639886</v>
+        <v>399292168.9924412</v>
       </c>
       <c r="D191" t="n">
-        <v>1462422043.861691</v>
+        <v>1378098126.366989</v>
       </c>
       <c r="E191" t="n">
-        <v>0.04690937474360424</v>
+        <v>0.04613056510033402</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-5.766045297842693</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>0.7818291181013586</v>
+        <v>0.7661315462499577</v>
       </c>
       <c r="C192" t="n">
-        <v>399292168.9924412</v>
+        <v>309653471.8953094</v>
       </c>
       <c r="D192" t="n">
-        <v>1378098126.366989</v>
+        <v>1356167862.902147</v>
       </c>
       <c r="E192" t="n">
-        <v>0.04613056510033422</v>
+        <v>0.04564287432921368</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-1.591342666044793</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7661315462499577</v>
+        <v>0.7633165389961581</v>
       </c>
       <c r="C193" t="n">
-        <v>309653471.8953094</v>
+        <v>174912133.8742557</v>
       </c>
       <c r="D193" t="n">
-        <v>1356167862.902147</v>
+        <v>1371303849.413934</v>
       </c>
       <c r="E193" t="n">
-        <v>0.04564287432921389</v>
+        <v>0.04527778262198977</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.116085030904368</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>0.7633165389961581</v>
+        <v>0.7237139499618174</v>
       </c>
       <c r="C194" t="n">
-        <v>174912133.8742557</v>
+        <v>231992520.9046728</v>
       </c>
       <c r="D194" t="n">
-        <v>1371303849.413934</v>
+        <v>1300514922.317785</v>
       </c>
       <c r="E194" t="n">
-        <v>0.04527778262198998</v>
+        <v>0.0457331361777082</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-5.162162063965781</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7237139499618174</v>
+        <v>0.7084480349579533</v>
       </c>
       <c r="C195" t="n">
-        <v>231992520.9046728</v>
+        <v>156047739.6312455</v>
       </c>
       <c r="D195" t="n">
-        <v>1300514922.317785</v>
+        <v>1275364464.190961</v>
       </c>
       <c r="E195" t="n">
-        <v>0.04573313617770841</v>
+        <v>0.04656556545625172</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-1.93388462486852</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7084480349579533</v>
+        <v>0.7194005018002214</v>
       </c>
       <c r="C196" t="n">
-        <v>156047739.6312455</v>
+        <v>134613803.9779006</v>
       </c>
       <c r="D196" t="n">
-        <v>1275364464.190961</v>
+        <v>1297066335.409452</v>
       </c>
       <c r="E196" t="n">
-        <v>0.04656556545625194</v>
+        <v>0.04702646088661192</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.701621130886544</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7194005018002214</v>
+        <v>0.7135782731350074</v>
       </c>
       <c r="C197" t="n">
-        <v>134613803.9779006</v>
+        <v>172376361.7295931</v>
       </c>
       <c r="D197" t="n">
-        <v>1297066335.409452</v>
+        <v>1286999066.286112</v>
       </c>
       <c r="E197" t="n">
-        <v>0.04702646088661212</v>
+        <v>0.04751337603043763</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.7761568432166466</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7135782731350074</v>
+        <v>0.6863776147683539</v>
       </c>
       <c r="C198" t="n">
-        <v>172376361.7295931</v>
+        <v>141696297.7713546</v>
       </c>
       <c r="D198" t="n">
-        <v>1286999066.286112</v>
+        <v>1234464621.630896</v>
       </c>
       <c r="E198" t="n">
-        <v>0.04751337603043783</v>
+        <v>0.04819523535959821</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-4.081933393068804</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>0.6863776147683539</v>
+        <v>0.7072612745813784</v>
       </c>
       <c r="C199" t="n">
-        <v>141696297.7713546</v>
+        <v>137917322.6088448</v>
       </c>
       <c r="D199" t="n">
-        <v>1234464621.630896</v>
+        <v>1275455478.164937</v>
       </c>
       <c r="E199" t="n">
-        <v>0.04819523535959841</v>
+        <v>0.04865257303406826</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3.320537163704795</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7072612745813784</v>
+        <v>0.6907773313171081</v>
       </c>
       <c r="C200" t="n">
-        <v>137917322.6088448</v>
+        <v>128345436.788505</v>
       </c>
       <c r="D200" t="n">
-        <v>1275455478.164937</v>
+        <v>1245279730.179782</v>
       </c>
       <c r="E200" t="n">
-        <v>0.04865257303406845</v>
+        <v>0.04976776799967253</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-2.365880150404831</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>0.6907773313171081</v>
+        <v>0.6439714611909132</v>
       </c>
       <c r="C201" t="n">
-        <v>128345436.788505</v>
+        <v>256905779.4225423</v>
       </c>
       <c r="D201" t="n">
-        <v>1245279730.179782</v>
+        <v>1154243609.063724</v>
       </c>
       <c r="E201" t="n">
-        <v>0.04976776799967272</v>
+        <v>0.05318248215121501</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-7.310495699059915</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6439714611909132</v>
+        <v>0.6208986232845777</v>
       </c>
       <c r="C202" t="n">
-        <v>256905779.4225423</v>
+        <v>101914052.2588592</v>
       </c>
       <c r="D202" t="n">
-        <v>1154243609.063724</v>
+        <v>1124670460.125496</v>
       </c>
       <c r="E202" t="n">
-        <v>0.05318248215121519</v>
+        <v>0.05779119527441573</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-2.56212368914186</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>0.6208986232845777</v>
+        <v>0.6156294415228423</v>
       </c>
       <c r="C203" t="n">
-        <v>101914052.2588592</v>
+        <v>87942498.89424558</v>
       </c>
       <c r="D203" t="n">
-        <v>1124670460.125496</v>
+        <v>1114267367.326268</v>
       </c>
       <c r="E203" t="n">
-        <v>0.05779119527441589</v>
+        <v>0.06188044007777632</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.9249903121015035</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6156294415228423</v>
+        <v>0.6330199284230503</v>
       </c>
       <c r="C204" t="n">
-        <v>87942498.89424558</v>
+        <v>167485212.5457849</v>
       </c>
       <c r="D204" t="n">
-        <v>1114267367.326268</v>
+        <v>1134529900.34528</v>
       </c>
       <c r="E204" t="n">
-        <v>0.06188044007777647</v>
+        <v>0.06415939301324183</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.81846239180754</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6330199284230503</v>
+        <v>0.6118102412131813</v>
       </c>
       <c r="C205" t="n">
-        <v>167485212.5457849</v>
+        <v>153242541.5848438</v>
       </c>
       <c r="D205" t="n">
-        <v>1134529900.34528</v>
+        <v>1099368157.02572</v>
       </c>
       <c r="E205" t="n">
-        <v>0.06415939301324197</v>
+        <v>0.06772402880648841</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-3.099234608877166</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6118102412131813</v>
+        <v>0.5707148177366071</v>
       </c>
       <c r="C206" t="n">
-        <v>153242541.5848438</v>
+        <v>143124910.9624264</v>
       </c>
       <c r="D206" t="n">
-        <v>1099368157.02572</v>
+        <v>1030085059.979305</v>
       </c>
       <c r="E206" t="n">
-        <v>0.06772402880648855</v>
+        <v>0.07342816314149685</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-6.302083301544437</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>0.5707148177366071</v>
+        <v>0.5374691612243094</v>
       </c>
       <c r="C207" t="n">
-        <v>143124910.9624264</v>
+        <v>174099766.3456813</v>
       </c>
       <c r="D207" t="n">
-        <v>1030085059.979305</v>
+        <v>966301064.6044598</v>
       </c>
       <c r="E207" t="n">
-        <v>0.07342816314149697</v>
+        <v>0.07197214102117291</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-6.192109550266345</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5374691612243094</v>
+        <v>0.535997071196621</v>
       </c>
       <c r="C208" t="n">
-        <v>174099766.3456813</v>
+        <v>152852270.8104611</v>
       </c>
       <c r="D208" t="n">
-        <v>966301064.6044598</v>
+        <v>979982184.4246325</v>
       </c>
       <c r="E208" t="n">
-        <v>0.07197214102117305</v>
+        <v>0.07335022847038124</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.415823734580379</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>0.535997071196621</v>
+        <v>0.5293649656219263</v>
       </c>
       <c r="C209" t="n">
-        <v>152852270.8104611</v>
+        <v>115019718.091905</v>
       </c>
       <c r="D209" t="n">
-        <v>979982184.4246325</v>
+        <v>961146103.822392</v>
       </c>
       <c r="E209" t="n">
-        <v>0.07335022847038136</v>
+        <v>0.07934612893951681</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-1.922083982914402</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5293649656219263</v>
+        <v>0.5864250572977305</v>
       </c>
       <c r="C210" t="n">
-        <v>115019718.091905</v>
+        <v>150915752.5672918</v>
       </c>
       <c r="D210" t="n">
-        <v>961146103.822392</v>
+        <v>1061404051.98869</v>
       </c>
       <c r="E210" t="n">
-        <v>0.07934612893951692</v>
+        <v>0.08127229824662943</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10.43108303384686</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5864250572977305</v>
+        <v>0.6192242105439745</v>
       </c>
       <c r="C211" t="n">
-        <v>150915752.5672918</v>
+        <v>270144276.0521533</v>
       </c>
       <c r="D211" t="n">
-        <v>1061404051.98869</v>
+        <v>1122458933.981017</v>
       </c>
       <c r="E211" t="n">
-        <v>0.08127229824662954</v>
+        <v>0.08128433038433795</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5.752275194157397</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>0.6192242105439745</v>
+        <v>0.6467641804711903</v>
       </c>
       <c r="C212" t="n">
-        <v>270144276.0521533</v>
+        <v>254865952.2378051</v>
       </c>
       <c r="D212" t="n">
-        <v>1122458933.981017</v>
+        <v>1169912683.628778</v>
       </c>
       <c r="E212" t="n">
-        <v>0.08128433038433806</v>
+        <v>0.08144895239701606</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4.227660203073746</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6467641804711903</v>
+        <v>0.5906855561949856</v>
       </c>
       <c r="C213" t="n">
-        <v>254865952.2378051</v>
+        <v>241087773.2475317</v>
       </c>
       <c r="D213" t="n">
-        <v>1169912683.628778</v>
+        <v>1069792953.505699</v>
       </c>
       <c r="E213" t="n">
-        <v>0.08144895239701617</v>
+        <v>0.08310046443464518</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-8.557880560157061</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5906855561949856</v>
+        <v>0.5971417895212963</v>
       </c>
       <c r="C214" t="n">
-        <v>241087773.2475317</v>
+        <v>624614854.503888</v>
       </c>
       <c r="D214" t="n">
-        <v>1069792953.505699</v>
+        <v>1078830617.473802</v>
       </c>
       <c r="E214" t="n">
-        <v>0.08310046443464529</v>
+        <v>0.08404315908189645</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.844804963286272</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5971417895212963</v>
+        <v>0.6826172818855866</v>
       </c>
       <c r="C215" t="n">
-        <v>624614854.503888</v>
+        <v>229556988.1355385</v>
       </c>
       <c r="D215" t="n">
-        <v>1078830617.473802</v>
+        <v>1239680829.831347</v>
       </c>
       <c r="E215" t="n">
-        <v>0.08404315908189657</v>
+        <v>0.08229076624073907</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14.9096818121637</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>0.6826172818855866</v>
+        <v>0.6744233493930102</v>
       </c>
       <c r="C216" t="n">
-        <v>229556988.1355385</v>
+        <v>352495156.7792817</v>
       </c>
       <c r="D216" t="n">
-        <v>1239680829.831347</v>
+        <v>1221411246.937105</v>
       </c>
       <c r="E216" t="n">
-        <v>0.08229076624073918</v>
+        <v>0.08170501215494946</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.473732791102933</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>0.6744233493930102</v>
+        <v>0.6917655019944431</v>
       </c>
       <c r="C217" t="n">
-        <v>352495156.7792817</v>
+        <v>225838770.0068826</v>
       </c>
       <c r="D217" t="n">
-        <v>1221411246.937105</v>
+        <v>1258316737.752233</v>
       </c>
       <c r="E217" t="n">
-        <v>0.08170501215494959</v>
+        <v>0.07992480855099859</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3.021545028971562</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>0.6917655019944431</v>
+        <v>0.6648196589140716</v>
       </c>
       <c r="C218" t="n">
-        <v>225838770.0068826</v>
+        <v>209257264.282058</v>
       </c>
       <c r="D218" t="n">
-        <v>1258316737.752233</v>
+        <v>1208589624.87097</v>
       </c>
       <c r="E218" t="n">
-        <v>0.07992480855099872</v>
+        <v>0.077837746135519</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-3.95187565970806</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>0.6648196589140716</v>
+        <v>0.6789158144216708</v>
       </c>
       <c r="C219" t="n">
-        <v>209257264.282058</v>
+        <v>180315351.0816031</v>
       </c>
       <c r="D219" t="n">
-        <v>1208589624.87097</v>
+        <v>1228875265.975958</v>
       </c>
       <c r="E219" t="n">
-        <v>0.07783774613551911</v>
+        <v>0.07474151229289824</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.678455671597701</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>0.6789158144216708</v>
+        <v>0.639766087851667</v>
       </c>
       <c r="C220" t="n">
-        <v>180315351.0816031</v>
+        <v>154732622.0361727</v>
       </c>
       <c r="D220" t="n">
-        <v>1228875265.975958</v>
+        <v>1157844630.764477</v>
       </c>
       <c r="E220" t="n">
-        <v>0.07474151229289837</v>
+        <v>0.06779367891245842</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-5.780133849066416</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>0.639766087851667</v>
+        <v>0.6681342848252878</v>
       </c>
       <c r="C221" t="n">
-        <v>154732622.0361727</v>
+        <v>124979780.8990953</v>
       </c>
       <c r="D221" t="n">
-        <v>1157844630.764477</v>
+        <v>1209462861.703503</v>
       </c>
       <c r="E221" t="n">
-        <v>0.06779367891245856</v>
+        <v>0.06346463288144712</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4.45813104517705</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>0.6681342848252878</v>
+        <v>0.6341388392763561</v>
       </c>
       <c r="C222" t="n">
-        <v>124979780.8990953</v>
+        <v>103983706.4880413</v>
       </c>
       <c r="D222" t="n">
-        <v>1209462861.703503</v>
+        <v>1156770333.635275</v>
       </c>
       <c r="E222" t="n">
-        <v>0.06346463288144727</v>
+        <v>0.05964049884074824</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-4.356688389258323</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>0.6341388392763561</v>
+        <v>0.6269924627569172</v>
       </c>
       <c r="C223" t="n">
-        <v>103983706.4880413</v>
+        <v>85341238.46924633</v>
       </c>
       <c r="D223" t="n">
-        <v>1156770333.635275</v>
+        <v>1146664559.399661</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0596404988407484</v>
+        <v>0.05545767027991008</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.873619762001987</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6269924627569172</v>
+        <v>0.6356692788348337</v>
       </c>
       <c r="C224" t="n">
-        <v>85341238.46924633</v>
+        <v>81282548.4387299</v>
       </c>
       <c r="D224" t="n">
-        <v>1146664559.399661</v>
+        <v>1161347767.420893</v>
       </c>
       <c r="E224" t="n">
-        <v>0.05545767027991026</v>
+        <v>0.05325226481306448</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.28051468067687</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>0.6356692788348337</v>
+        <v>0.5960800305341079</v>
       </c>
       <c r="C225" t="n">
-        <v>81282548.4387299</v>
+        <v>132601845.2878068</v>
       </c>
       <c r="D225" t="n">
-        <v>1161347767.420893</v>
+        <v>1083953996.717912</v>
       </c>
       <c r="E225" t="n">
-        <v>0.05325226481306466</v>
+        <v>0.05211992155690037</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-6.66413393766242</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5960800305341079</v>
+        <v>0.6181166478971645</v>
       </c>
       <c r="C226" t="n">
-        <v>132601845.2878068</v>
+        <v>110828470.9780586</v>
       </c>
       <c r="D226" t="n">
-        <v>1083953996.717912</v>
+        <v>1124844093.23288</v>
       </c>
       <c r="E226" t="n">
-        <v>0.05211992155690055</v>
+        <v>0.04968751865291628</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3.772309215961078</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>0.6181166478971645</v>
+        <v>0.6413246637787683</v>
       </c>
       <c r="C227" t="n">
-        <v>110828470.9780586</v>
+        <v>151844205.1902197</v>
       </c>
       <c r="D227" t="n">
-        <v>1124844093.23288</v>
+        <v>1166865391.544466</v>
       </c>
       <c r="E227" t="n">
-        <v>0.04968751865291648</v>
+        <v>0.04727009646767207</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.735744230190496</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>0.6413246637787683</v>
+        <v>0.6221903510466827</v>
       </c>
       <c r="C228" t="n">
-        <v>151844205.1902197</v>
+        <v>128708845.5050566</v>
       </c>
       <c r="D228" t="n">
-        <v>1166865391.544466</v>
+        <v>1130746684.955873</v>
       </c>
       <c r="E228" t="n">
-        <v>0.04727009646767227</v>
+        <v>0.04602967182213423</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-3.095361885811576</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>0.6221903510466827</v>
+        <v>0.6296885220636028</v>
       </c>
       <c r="C229" t="n">
-        <v>128708845.5050566</v>
+        <v>90117958.57573472</v>
       </c>
       <c r="D229" t="n">
-        <v>1130746684.955873</v>
+        <v>1147495537.811253</v>
       </c>
       <c r="E229" t="n">
-        <v>0.04602967182213444</v>
+        <v>0.0434776478936495</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.481220602122169</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>0.6296885220636028</v>
+        <v>0.6373308279332321</v>
       </c>
       <c r="C230" t="n">
-        <v>90117958.57573472</v>
+        <v>84740897.64816053</v>
       </c>
       <c r="D230" t="n">
-        <v>1147495537.811253</v>
+        <v>1159208127.807356</v>
       </c>
       <c r="E230" t="n">
-        <v>0.04347764789364971</v>
+        <v>0.04172733615794715</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.020708979700613</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>0.6373308279332321</v>
+        <v>0.6186738050184921</v>
       </c>
       <c r="C231" t="n">
-        <v>84740897.64816053</v>
+        <v>120605074.7731587</v>
       </c>
       <c r="D231" t="n">
-        <v>1159208127.807356</v>
+        <v>1125422727.256502</v>
       </c>
       <c r="E231" t="n">
-        <v>0.04172733615794738</v>
+        <v>0.04153789365785139</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-2.914524125599316</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>0.6186738050184921</v>
+        <v>0.6232190651535624</v>
       </c>
       <c r="C232" t="n">
-        <v>120605074.7731587</v>
+        <v>169492087.2673584</v>
       </c>
       <c r="D232" t="n">
-        <v>1125422727.256502</v>
+        <v>1137946760.236973</v>
       </c>
       <c r="E232" t="n">
-        <v>0.04153789365785162</v>
+        <v>0.04153820268020836</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.112829222047185</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6232190651535624</v>
+        <v>0.635980169272781</v>
       </c>
       <c r="C233" t="n">
-        <v>169492087.2673584</v>
+        <v>131236070.0675487</v>
       </c>
       <c r="D233" t="n">
-        <v>1137946760.236973</v>
+        <v>1156759212.668344</v>
       </c>
       <c r="E233" t="n">
-        <v>0.04153820268020859</v>
+        <v>0.0415977711963862</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.653192670231163</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>0.635980169272781</v>
+        <v>0.6574522330059139</v>
       </c>
       <c r="C234" t="n">
-        <v>131236070.0675487</v>
+        <v>129728664.2624154</v>
       </c>
       <c r="D234" t="n">
-        <v>1156759212.668344</v>
+        <v>1195183327.543567</v>
       </c>
       <c r="E234" t="n">
-        <v>0.04159777119638643</v>
+        <v>0.04204525995242291</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3.321703813068289</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>0.6574522330059139</v>
+        <v>0.639104348884364</v>
       </c>
       <c r="C235" t="n">
-        <v>129728664.2624154</v>
+        <v>159337256.2435696</v>
       </c>
       <c r="D235" t="n">
-        <v>1195183327.543567</v>
+        <v>1162317443.513704</v>
       </c>
       <c r="E235" t="n">
-        <v>0.04204525995242314</v>
+        <v>0.0420804460292435</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-2.749861320221991</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>0.639104348884364</v>
+        <v>0.6565160841636464</v>
       </c>
       <c r="C236" t="n">
-        <v>159337256.2435696</v>
+        <v>195510618.3164395</v>
       </c>
       <c r="D236" t="n">
-        <v>1162317443.513704</v>
+        <v>1196451247.750072</v>
       </c>
       <c r="E236" t="n">
-        <v>0.04208044602924373</v>
+        <v>0.04121702702269545</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2.936702398028324</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>0.6565160841636464</v>
+        <v>0.6378807638418242</v>
       </c>
       <c r="C237" t="n">
-        <v>195510618.3164395</v>
+        <v>100018406.4684021</v>
       </c>
       <c r="D237" t="n">
-        <v>1196451247.750072</v>
+        <v>1162330000.436719</v>
       </c>
       <c r="E237" t="n">
-        <v>0.04121702702269569</v>
+        <v>0.03759717831677982</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-2.851871096086744</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>0.6378807638418242</v>
+        <v>0.6407602479438467</v>
       </c>
       <c r="C238" t="n">
-        <v>100018406.4684021</v>
+        <v>92590255.68632342</v>
       </c>
       <c r="D238" t="n">
-        <v>1162330000.436719</v>
+        <v>1167371535.469429</v>
       </c>
       <c r="E238" t="n">
-        <v>0.03759717831678007</v>
+        <v>0.03310990765201201</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.4337438619682388</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>0.6407602479438467</v>
+        <v>0.6525267785575074</v>
       </c>
       <c r="C239" t="n">
-        <v>92590255.68632342</v>
+        <v>105544096.4477873</v>
       </c>
       <c r="D239" t="n">
-        <v>1167371535.469429</v>
+        <v>1189641003.278268</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0331099076520123</v>
+        <v>0.02669835490518024</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.907658969934034</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>0.6525267785575074</v>
+        <v>0.6506001200497568</v>
       </c>
       <c r="C240" t="n">
-        <v>105544096.4477873</v>
+        <v>129864987.8532229</v>
       </c>
       <c r="D240" t="n">
-        <v>1189641003.278268</v>
+        <v>1183573172.510451</v>
       </c>
       <c r="E240" t="n">
-        <v>0.0266983549051806</v>
+        <v>0.0249235059509208</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.5100556177112026</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>0.6506001200497568</v>
+        <v>0.6606547509881141</v>
       </c>
       <c r="C241" t="n">
-        <v>129864987.8532229</v>
+        <v>191489835.0067516</v>
       </c>
       <c r="D241" t="n">
-        <v>1183573172.510451</v>
+        <v>1198730161.485001</v>
       </c>
       <c r="E241" t="n">
-        <v>0.02492350595092118</v>
+        <v>0.0248641389977689</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.280612751841992</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>0.6606547509881141</v>
+        <v>0.6672408506012967</v>
       </c>
       <c r="C242" t="n">
-        <v>191489835.0067516</v>
+        <v>135699570.5970969</v>
       </c>
       <c r="D242" t="n">
-        <v>1198730161.485001</v>
+        <v>1214282624.918614</v>
       </c>
       <c r="E242" t="n">
-        <v>0.02486413899776928</v>
+        <v>0.02528643181850275</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.29741153875258</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6672408506012967</v>
+        <v>0.6892192000789241</v>
       </c>
       <c r="C243" t="n">
-        <v>135699570.5970969</v>
+        <v>211801219.2870462</v>
       </c>
       <c r="D243" t="n">
-        <v>1214282624.918614</v>
+        <v>1257402723.808769</v>
       </c>
       <c r="E243" t="n">
-        <v>0.02528643181850313</v>
+        <v>0.02473805762718724</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3.551076002017628</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>0.6892192000789241</v>
+        <v>0.685882735383604</v>
       </c>
       <c r="C244" t="n">
-        <v>211801219.2870462</v>
+        <v>158419850.2256169</v>
       </c>
       <c r="D244" t="n">
-        <v>1257402723.808769</v>
+        <v>1249822973.796391</v>
       </c>
       <c r="E244" t="n">
-        <v>0.02473805762718763</v>
+        <v>0.02403559989630696</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.6028100519313573</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>0.685882735383604</v>
+        <v>0.6918176706277358</v>
       </c>
       <c r="C245" t="n">
-        <v>158419850.2256169</v>
+        <v>125660693.5917726</v>
       </c>
       <c r="D245" t="n">
-        <v>1249822973.796391</v>
+        <v>1258047354.160757</v>
       </c>
       <c r="E245" t="n">
-        <v>0.02403559989630736</v>
+        <v>0.02453818641412086</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.6580436219206343</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>0.6918176706277358</v>
+        <v>0.700193898654845</v>
       </c>
       <c r="C246" t="n">
-        <v>125660693.5917726</v>
+        <v>226588584.4615735</v>
       </c>
       <c r="D246" t="n">
-        <v>1258047354.160757</v>
+        <v>1276091609.524139</v>
       </c>
       <c r="E246" t="n">
-        <v>0.02453818641412125</v>
+        <v>0.02587718860215914</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.434306530966722</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>0.700193898654845</v>
+        <v>0.701104534326117</v>
       </c>
       <c r="C247" t="n">
-        <v>226588584.4615735</v>
+        <v>231103391.0130564</v>
       </c>
       <c r="D247" t="n">
-        <v>1276091609.524139</v>
+        <v>1277265688.377082</v>
       </c>
       <c r="E247" t="n">
-        <v>0.02587718860215952</v>
+        <v>0.02644983502336676</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0920058437952509</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>0.701104534326117</v>
+        <v>0.6365418239023108</v>
       </c>
       <c r="C248" t="n">
-        <v>231103391.0130564</v>
+        <v>257545536.7134515</v>
       </c>
       <c r="D248" t="n">
-        <v>1277265688.377082</v>
+        <v>1157882940.99348</v>
       </c>
       <c r="E248" t="n">
-        <v>0.02644983502336712</v>
+        <v>0.02640978497394317</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-9.346743474749674</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>0.6365418239023108</v>
+        <v>0.617545361965252</v>
       </c>
       <c r="C249" t="n">
-        <v>257545536.7134515</v>
+        <v>166717453.3543061</v>
       </c>
       <c r="D249" t="n">
-        <v>1157882940.99348</v>
+        <v>1122953396.750181</v>
       </c>
       <c r="E249" t="n">
-        <v>0.02640978497394353</v>
+        <v>0.02639940344842196</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-3.016673189202435</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>0.617545361965252</v>
+        <v>0.5892815217484747</v>
       </c>
       <c r="C250" t="n">
-        <v>166717453.3543061</v>
+        <v>131921481.1719108</v>
       </c>
       <c r="D250" t="n">
-        <v>1122953396.750181</v>
+        <v>1071981418.330695</v>
       </c>
       <c r="E250" t="n">
-        <v>0.02639940344842233</v>
+        <v>0.02841379018106105</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-4.539100070136426</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5892815217484747</v>
+        <v>0.6030196129182162</v>
       </c>
       <c r="C251" t="n">
-        <v>131921481.1719108</v>
+        <v>86377218.2956268</v>
       </c>
       <c r="D251" t="n">
-        <v>1071981418.330695</v>
+        <v>1097733285.686051</v>
       </c>
       <c r="E251" t="n">
-        <v>0.02841379018106138</v>
+        <v>0.02909572780275881</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.402268072468838</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>0.6030196129182162</v>
+        <v>0.5884201115980073</v>
       </c>
       <c r="C252" t="n">
-        <v>86377218.2956268</v>
+        <v>90811720.903837</v>
       </c>
       <c r="D252" t="n">
-        <v>1097733285.686051</v>
+        <v>1068588272.268662</v>
       </c>
       <c r="E252" t="n">
-        <v>0.02909572780275914</v>
+        <v>0.03073895397809528</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-2.655017734947784</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5884201115980073</v>
+        <v>0.5868016740432583</v>
       </c>
       <c r="C253" t="n">
-        <v>90811720.903837</v>
+        <v>94788938.03968073</v>
       </c>
       <c r="D253" t="n">
-        <v>1068588272.268662</v>
+        <v>1075817768.187876</v>
       </c>
       <c r="E253" t="n">
-        <v>0.03073895397809559</v>
+        <v>0.03224120461429617</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.6765464404607346</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5868016740432583</v>
+        <v>0.5980072532124237</v>
       </c>
       <c r="C254" t="n">
-        <v>94788938.03968073</v>
+        <v>90865451.34149896</v>
       </c>
       <c r="D254" t="n">
-        <v>1075817768.187876</v>
+        <v>1095922574.9335</v>
       </c>
       <c r="E254" t="n">
-        <v>0.03224120461429646</v>
+        <v>0.0331506118681858</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.868792962909405</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5980072532124237</v>
+        <v>0.5744884491907037</v>
       </c>
       <c r="C255" t="n">
-        <v>90865451.34149896</v>
+        <v>168816036.3246093</v>
       </c>
       <c r="D255" t="n">
-        <v>1095922574.9335</v>
+        <v>1053829435.377356</v>
       </c>
       <c r="E255" t="n">
-        <v>0.0331506118681861</v>
+        <v>0.03433033073663141</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-3.840886255919929</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5744884491907037</v>
+        <v>0.5887236084956244</v>
       </c>
       <c r="C256" t="n">
-        <v>168816036.3246093</v>
+        <v>114363283.748748</v>
       </c>
       <c r="D256" t="n">
-        <v>1053829435.377356</v>
+        <v>1077920983.545714</v>
       </c>
       <c r="E256" t="n">
-        <v>0.03433033073663169</v>
+        <v>0.03533353041362495</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2.286095582415748</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>0.5887236084956244</v>
+        <v>0.5869271972859786</v>
       </c>
       <c r="C257" t="n">
-        <v>114363283.748748</v>
+        <v>81884612.19517006</v>
       </c>
       <c r="D257" t="n">
-        <v>1077920983.545714</v>
+        <v>1076248248.702309</v>
       </c>
       <c r="E257" t="n">
-        <v>0.03533353041362522</v>
+        <v>0.03650198400673275</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.1551815827819492</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>0.5869271972859786</v>
+        <v>0.5908473636261115</v>
       </c>
       <c r="C258" t="n">
-        <v>81884612.19517006</v>
+        <v>59935210.36776805</v>
       </c>
       <c r="D258" t="n">
-        <v>1076248248.702309</v>
+        <v>1083699273.554094</v>
       </c>
       <c r="E258" t="n">
-        <v>0.03650198400673302</v>
+        <v>0.03733781137977316</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.6923147016284936</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5908473636261115</v>
+        <v>0.5811096456254249</v>
       </c>
       <c r="C259" t="n">
-        <v>59935210.36776805</v>
+        <v>65674042.04968888</v>
       </c>
       <c r="D259" t="n">
-        <v>1083699273.554094</v>
+        <v>1066420311.80708</v>
       </c>
       <c r="E259" t="n">
-        <v>0.03733781137977342</v>
+        <v>0.03858830736662777</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-1.594442496057591</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>0.5811096456254249</v>
+        <v>0.5607512618976488</v>
       </c>
       <c r="C260" t="n">
-        <v>65674042.04968888</v>
+        <v>81597941.05513728</v>
       </c>
       <c r="D260" t="n">
-        <v>1066420311.80708</v>
+        <v>1027832375.801611</v>
       </c>
       <c r="E260" t="n">
-        <v>0.03858830736662802</v>
+        <v>0.04075893978866608</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-3.618454710421015</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>0.5607512618976488</v>
+        <v>0.5697946927683545</v>
       </c>
       <c r="C261" t="n">
-        <v>81597941.05513728</v>
+        <v>62370300.68493569</v>
       </c>
       <c r="D261" t="n">
-        <v>1027832375.801611</v>
+        <v>1044767153.037543</v>
       </c>
       <c r="E261" t="n">
-        <v>0.04075893978866631</v>
+        <v>0.04219454045106963</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.647620529828586</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>0.5697946927683545</v>
+        <v>0.5811553409682788</v>
       </c>
       <c r="C262" t="n">
-        <v>62370300.68493569</v>
+        <v>84188497.91363707</v>
       </c>
       <c r="D262" t="n">
-        <v>1044767153.037543</v>
+        <v>1066644921.412703</v>
       </c>
       <c r="E262" t="n">
-        <v>0.04219454045106986</v>
+        <v>0.04307428865521191</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2.09403294423578</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>0.5811553409682788</v>
+        <v>0.5676884598554712</v>
       </c>
       <c r="C263" t="n">
-        <v>84188497.91363707</v>
+        <v>56215128.69859311</v>
       </c>
       <c r="D263" t="n">
-        <v>1066644921.412703</v>
+        <v>1040951247.560535</v>
       </c>
       <c r="E263" t="n">
-        <v>0.04307428865521213</v>
+        <v>0.0443867450072811</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-2.408831030493097</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>0.5676884598554712</v>
+        <v>0.5765248681739902</v>
       </c>
       <c r="C264" t="n">
-        <v>56215128.69859311</v>
+        <v>74955933.35658152</v>
       </c>
       <c r="D264" t="n">
-        <v>1040951247.560535</v>
+        <v>1061681937.920636</v>
       </c>
       <c r="E264" t="n">
-        <v>0.04438674500728132</v>
+        <v>0.04480794069341907</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.991514051083887</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>0.5765248681739902</v>
+        <v>0.551777087009236</v>
       </c>
       <c r="C265" t="n">
-        <v>74955933.35658152</v>
+        <v>78072127.45567729</v>
       </c>
       <c r="D265" t="n">
-        <v>1061681937.920636</v>
+        <v>1012931540.643618</v>
       </c>
       <c r="E265" t="n">
-        <v>0.04480794069341928</v>
+        <v>0.04648844504967915</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-4.591808105212691</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>0.551777087009236</v>
+        <v>0.5460454516168944</v>
       </c>
       <c r="C266" t="n">
-        <v>78072127.45567729</v>
+        <v>47771363.40929426</v>
       </c>
       <c r="D266" t="n">
-        <v>1012931540.643618</v>
+        <v>1003580699.7735</v>
       </c>
       <c r="E266" t="n">
-        <v>0.04648844504967935</v>
+        <v>0.04780847658190752</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.9231463820521868</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>0.5460454516168944</v>
+        <v>0.5083976192258192</v>
       </c>
       <c r="C267" t="n">
-        <v>47771363.40929426</v>
+        <v>95113526.75364733</v>
       </c>
       <c r="D267" t="n">
-        <v>1003580699.7735</v>
+        <v>936843172.9314933</v>
       </c>
       <c r="E267" t="n">
-        <v>0.04780847658190772</v>
+        <v>0.05145032676130212</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-6.649941241104895</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>0.5083976192258192</v>
+        <v>0.5097795914505658</v>
       </c>
       <c r="C268" t="n">
-        <v>95113526.75364733</v>
+        <v>82425548.19265904</v>
       </c>
       <c r="D268" t="n">
-        <v>936843172.9314933</v>
+        <v>936573576.3133315</v>
       </c>
       <c r="E268" t="n">
-        <v>0.05145032676130231</v>
+        <v>0.05435385773887965</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.02877713431140849</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>0.5097795914505658</v>
+        <v>0.518569684164309</v>
       </c>
       <c r="C269" t="n">
-        <v>82425548.19265904</v>
+        <v>112342084.1260216</v>
       </c>
       <c r="D269" t="n">
-        <v>936573576.3133315</v>
+        <v>953905626.3799727</v>
       </c>
       <c r="E269" t="n">
-        <v>0.05435385773887982</v>
+        <v>0.05597124081477649</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.850580723712714</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>0.518569684164309</v>
+        <v>0.4978050153084397</v>
       </c>
       <c r="C270" t="n">
-        <v>112342084.1260216</v>
+        <v>93866918.53687017</v>
       </c>
       <c r="D270" t="n">
-        <v>953905626.3799727</v>
+        <v>915638606.1551514</v>
       </c>
       <c r="E270" t="n">
-        <v>0.05597124081477666</v>
+        <v>0.05835671052297037</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-4.011614898430038</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4978050153084397</v>
+        <v>0.5089287015997048</v>
       </c>
       <c r="C271" t="n">
-        <v>93866918.53687017</v>
+        <v>88803879.25835106</v>
       </c>
       <c r="D271" t="n">
-        <v>915638606.1551514</v>
+        <v>935647349.5161641</v>
       </c>
       <c r="E271" t="n">
-        <v>0.05835671052297053</v>
+        <v>0.05926560570812243</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2.1852227752859</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>0.5089287015997048</v>
+        <v>0.502257033126726</v>
       </c>
       <c r="C272" t="n">
-        <v>88803879.25835106</v>
+        <v>43843394.45891384</v>
       </c>
       <c r="D272" t="n">
-        <v>935647349.5161641</v>
+        <v>934058439.1087228</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0592656057081226</v>
+        <v>0.05974183502643207</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-0.1698193671219039</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>0.502257033126726</v>
+        <v>0.5050742918247548</v>
       </c>
       <c r="C273" t="n">
-        <v>43843394.45891384</v>
+        <v>45938022.38832545</v>
       </c>
       <c r="D273" t="n">
-        <v>934058439.1087228</v>
+        <v>935328151.1726849</v>
       </c>
       <c r="E273" t="n">
-        <v>0.05974183502643223</v>
+        <v>0.0583180866153514</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1359349705328583</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5050742918247548</v>
+        <v>0.5045976612095974</v>
       </c>
       <c r="C274" t="n">
-        <v>45938022.38832545</v>
+        <v>70905915.51000799</v>
       </c>
       <c r="D274" t="n">
-        <v>935328151.1726849</v>
+        <v>936043549.9890323</v>
       </c>
       <c r="E274" t="n">
-        <v>0.05831808661535157</v>
+        <v>0.05641996577731569</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.07648639843143012</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>0.5045976612095974</v>
+        <v>0.517721071551992</v>
       </c>
       <c r="C275" t="n">
-        <v>70905915.51000799</v>
+        <v>79139588.19345546</v>
       </c>
       <c r="D275" t="n">
-        <v>936043549.9890323</v>
+        <v>958954165.2351599</v>
       </c>
       <c r="E275" t="n">
-        <v>0.05641996577731586</v>
+        <v>0.05280655611303474</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.447601422647061</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>0.517721071551992</v>
+        <v>0.5327086961155653</v>
       </c>
       <c r="C276" t="n">
-        <v>79139588.19345546</v>
+        <v>172669547.7587118</v>
       </c>
       <c r="D276" t="n">
-        <v>958954165.2351599</v>
+        <v>988090999.0527804</v>
       </c>
       <c r="E276" t="n">
-        <v>0.05280655611303492</v>
+        <v>0.0469909287466752</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3.038396919677111</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>0.5327086961155653</v>
+        <v>0.5327231727326811</v>
       </c>
       <c r="C277" t="n">
-        <v>172669547.7587118</v>
+        <v>102991951.342836</v>
       </c>
       <c r="D277" t="n">
-        <v>988090999.0527804</v>
+        <v>991312366.19568</v>
       </c>
       <c r="E277" t="n">
-        <v>0.0469909287466754</v>
+        <v>0.03942437436357145</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.3260192781826543</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>0.5327231727326811</v>
+        <v>0.534868708977395</v>
       </c>
       <c r="C278" t="n">
-        <v>102991951.342836</v>
+        <v>76964733.18467513</v>
       </c>
       <c r="D278" t="n">
-        <v>991312366.19568</v>
+        <v>992299616.40263</v>
       </c>
       <c r="E278" t="n">
-        <v>0.03942437436357169</v>
+        <v>0.03669785128178629</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.09959022409240514</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>0.534868708977395</v>
+        <v>0.5304406163199997</v>
       </c>
       <c r="C279" t="n">
-        <v>76964733.18467513</v>
+        <v>41640478.00080583</v>
       </c>
       <c r="D279" t="n">
-        <v>992299616.40263</v>
+        <v>983327790.5294449</v>
       </c>
       <c r="E279" t="n">
-        <v>0.03669785128178655</v>
+        <v>0.03493393735768142</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.9041448494871429</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>0.5304406163199997</v>
+        <v>0.5164082003839691</v>
       </c>
       <c r="C280" t="n">
-        <v>41640478.00080583</v>
+        <v>48163168.25079279</v>
       </c>
       <c r="D280" t="n">
-        <v>983327790.5294449</v>
+        <v>958367577.9650306</v>
       </c>
       <c r="E280" t="n">
-        <v>0.03493393735768169</v>
+        <v>0.03474991291659402</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-2.538341009458833</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5164082003839691</v>
+        <v>0.5120631378540552</v>
       </c>
       <c r="C281" t="n">
-        <v>48163168.25079279</v>
+        <v>63696944.53460646</v>
       </c>
       <c r="D281" t="n">
-        <v>958367577.9650306</v>
+        <v>949819819.4399059</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0347499129165943</v>
+        <v>0.03383729034529494</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-0.8919081489875413</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>0.5120631378540552</v>
+        <v>0.5126678096187921</v>
       </c>
       <c r="C282" t="n">
-        <v>63696944.53460646</v>
+        <v>65790453.15604965</v>
       </c>
       <c r="D282" t="n">
-        <v>949819819.4399059</v>
+        <v>950010494.9935423</v>
       </c>
       <c r="E282" t="n">
-        <v>0.03383729034529523</v>
+        <v>0.03338970098648462</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.02007491839335351</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>0.5126678096187921</v>
+        <v>0.4971162743062059</v>
       </c>
       <c r="C283" t="n">
-        <v>65790453.15604965</v>
+        <v>100266040.4999829</v>
       </c>
       <c r="D283" t="n">
-        <v>950010494.9935423</v>
+        <v>923909832.023291</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0333897009864849</v>
+        <v>0.03339600309139761</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-2.747407855786765</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4971162743062059</v>
+        <v>0.5075001548833549</v>
       </c>
       <c r="C284" t="n">
-        <v>100266040.4999829</v>
+        <v>174798208.044456</v>
       </c>
       <c r="D284" t="n">
-        <v>923909832.023291</v>
+        <v>940225232.973107</v>
       </c>
       <c r="E284" t="n">
-        <v>0.03339600309139789</v>
+        <v>0.03208726926227611</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1.765908358620516</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>0.5075001548833549</v>
+        <v>0.5147445907963258</v>
       </c>
       <c r="C285" t="n">
-        <v>174798208.044456</v>
+        <v>88677825.68587652</v>
       </c>
       <c r="D285" t="n">
-        <v>940225232.973107</v>
+        <v>953972831.7470959</v>
       </c>
       <c r="E285" t="n">
-        <v>0.03208726926227641</v>
+        <v>0.03156313534172595</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1.462160160339177</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>0.5147445907963258</v>
+        <v>0.5271691013046673</v>
       </c>
       <c r="C286" t="n">
-        <v>88677825.68587652</v>
+        <v>81075325.81257062</v>
       </c>
       <c r="D286" t="n">
-        <v>953972831.7470959</v>
+        <v>980335990.3293458</v>
       </c>
       <c r="E286" t="n">
-        <v>0.03156313534172624</v>
+        <v>0.02994478194144973</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2.763512513660227</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>0.5271691013046673</v>
+        <v>0.5572404104864417</v>
       </c>
       <c r="C287" t="n">
-        <v>81075325.81257062</v>
+        <v>195079606.8023047</v>
       </c>
       <c r="D287" t="n">
-        <v>980335990.3293458</v>
+        <v>1030152945.441326</v>
       </c>
       <c r="E287" t="n">
-        <v>0.02994478194145005</v>
+        <v>0.02857664607593244</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5.081620546772303</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>0.5572404104864417</v>
+        <v>0.5506992710935609</v>
       </c>
       <c r="C288" t="n">
-        <v>195079606.8023047</v>
+        <v>88716736.82844813</v>
       </c>
       <c r="D288" t="n">
-        <v>1030152945.441326</v>
+        <v>1022006571.715481</v>
       </c>
       <c r="E288" t="n">
-        <v>0.02857664607593277</v>
+        <v>0.02662238020515624</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.7907926451012903</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>0.5506992710935609</v>
+        <v>0.555172552127647</v>
       </c>
       <c r="C289" t="n">
-        <v>88716736.82844813</v>
+        <v>113107027.045916</v>
       </c>
       <c r="D289" t="n">
-        <v>1022006571.715481</v>
+        <v>1029745965.520674</v>
       </c>
       <c r="E289" t="n">
-        <v>0.0266223802051566</v>
+        <v>0.0253337562954397</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.7572743678351923</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>0.555172552127647</v>
+        <v>0.5338286366226426</v>
       </c>
       <c r="C290" t="n">
-        <v>113107027.045916</v>
+        <v>112260705.1583578</v>
       </c>
       <c r="D290" t="n">
-        <v>1029745965.520674</v>
+        <v>989481174.1655221</v>
       </c>
       <c r="E290" t="n">
-        <v>0.02533375629544008</v>
+        <v>0.02468567512075971</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-3.910167429963429</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>0.5338286366226426</v>
+        <v>0.555110589694915</v>
       </c>
       <c r="C291" t="n">
-        <v>112260705.1583578</v>
+        <v>181012676.760808</v>
       </c>
       <c r="D291" t="n">
-        <v>989481174.1655221</v>
+        <v>1030317875.670562</v>
       </c>
       <c r="E291" t="n">
-        <v>0.0246856751207601</v>
+        <v>0.0239925915486277</v>
+      </c>
+      <c r="F291" t="n">
+        <v>4.127082209470023</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>0.555110589694915</v>
+        <v>0.5762560550323336</v>
       </c>
       <c r="C292" t="n">
-        <v>181012676.760808</v>
+        <v>127782526.2675784</v>
       </c>
       <c r="D292" t="n">
-        <v>1030317875.670562</v>
+        <v>1068446339.520538</v>
       </c>
       <c r="E292" t="n">
-        <v>0.0239925915486281</v>
+        <v>0.02363865449294991</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.700650522554572</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>0.5762560550323336</v>
+        <v>0.573717272099435</v>
       </c>
       <c r="C293" t="n">
-        <v>127782526.2675784</v>
+        <v>104177642.3104692</v>
       </c>
       <c r="D293" t="n">
-        <v>1068446339.520538</v>
+        <v>1063221203.547355</v>
       </c>
       <c r="E293" t="n">
-        <v>0.02363865449295031</v>
+        <v>0.02400408106745927</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.489040561038212</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>0.573717272099435</v>
+        <v>0.5946074234328014</v>
       </c>
       <c r="C294" t="n">
-        <v>104177642.3104692</v>
+        <v>150499162.470446</v>
       </c>
       <c r="D294" t="n">
-        <v>1063221203.547355</v>
+        <v>1100363453.961389</v>
       </c>
       <c r="E294" t="n">
-        <v>0.02400408106745966</v>
+        <v>0.02542535961993218</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3.493369986425421</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5946074234328014</v>
+        <v>0.5266538711542207</v>
       </c>
       <c r="C295" t="n">
-        <v>150499162.470446</v>
+        <v>421568378.7701188</v>
       </c>
       <c r="D295" t="n">
-        <v>1100363453.961389</v>
+        <v>977460813.273823</v>
       </c>
       <c r="E295" t="n">
-        <v>0.02542535961993256</v>
+        <v>0.02507882680996193</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-11.1692768643949</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5266538711542207</v>
+        <v>0.5331917487871961</v>
       </c>
       <c r="C296" t="n">
-        <v>421568378.7701188</v>
+        <v>234676016.2733629</v>
       </c>
       <c r="D296" t="n">
-        <v>977460813.273823</v>
+        <v>988131095.1698582</v>
       </c>
       <c r="E296" t="n">
-        <v>0.02507882680996231</v>
+        <v>0.02488121699548979</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1.091632702931289</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>0.5331917487871961</v>
+        <v>0.4927560849804072</v>
       </c>
       <c r="C297" t="n">
-        <v>234676016.2733629</v>
+        <v>149373646.7163183</v>
       </c>
       <c r="D297" t="n">
-        <v>988131095.1698582</v>
+        <v>912348551.8734561</v>
       </c>
       <c r="E297" t="n">
-        <v>0.02488121699549018</v>
+        <v>0.02546888615872744</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-7.669280287488089</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>0.4927560849804072</v>
+        <v>0.4866370201910487</v>
       </c>
       <c r="C298" t="n">
-        <v>149373646.7163183</v>
+        <v>102557404.6300189</v>
       </c>
       <c r="D298" t="n">
-        <v>912348551.8734561</v>
+        <v>902509508.0823908</v>
       </c>
       <c r="E298" t="n">
-        <v>0.02546888615872782</v>
+        <v>0.02636648898524607</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-1.078430362043259</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>0.4866370201910487</v>
+        <v>0.4687557072979955</v>
       </c>
       <c r="C299" t="n">
-        <v>102557404.6300189</v>
+        <v>101716446.473099</v>
       </c>
       <c r="D299" t="n">
-        <v>902509508.0823908</v>
+        <v>867269381.5333189</v>
       </c>
       <c r="E299" t="n">
-        <v>0.02636648898524643</v>
+        <v>0.02840388057102847</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-3.904682026447392</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>0.4687557072979955</v>
+        <v>0.3877670019189819</v>
       </c>
       <c r="C300" t="n">
-        <v>101716446.473099</v>
+        <v>314455191.8162014</v>
       </c>
       <c r="D300" t="n">
-        <v>867269381.5333189</v>
+        <v>719370100.9651335</v>
       </c>
       <c r="E300" t="n">
-        <v>0.02840388057102881</v>
+        <v>0.03767165735649129</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-17.05344195441348</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3877670019189819</v>
+        <v>0.3862889285001252</v>
       </c>
       <c r="C301" t="n">
-        <v>314455191.8162014</v>
+        <v>104603007.2495769</v>
       </c>
       <c r="D301" t="n">
-        <v>719370100.9651335</v>
+        <v>715281534.8613636</v>
       </c>
       <c r="E301" t="n">
-        <v>0.03767165735649155</v>
+        <v>0.04503406349755874</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-0.5683536330304162</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3862889285001252</v>
+        <v>0.3886883176932906</v>
       </c>
       <c r="C302" t="n">
-        <v>104603007.2495769</v>
+        <v>90949326.8983174</v>
       </c>
       <c r="D302" t="n">
-        <v>715281534.8613636</v>
+        <v>720128278.3008122</v>
       </c>
       <c r="E302" t="n">
-        <v>0.04503406349755894</v>
+        <v>0.05077241641831732</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.6775994071184899</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3886883176932906</v>
+        <v>0.3874534127780144</v>
       </c>
       <c r="C303" t="n">
-        <v>90949326.8983174</v>
+        <v>99685277.21236371</v>
       </c>
       <c r="D303" t="n">
-        <v>720128278.3008122</v>
+        <v>718435865.5674243</v>
       </c>
       <c r="E303" t="n">
-        <v>0.05077241641831751</v>
+        <v>0.05576335534944005</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.2350154527164694</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3874534127780144</v>
+        <v>0.3725507282438864</v>
       </c>
       <c r="C304" t="n">
-        <v>99685277.21236371</v>
+        <v>92940062.33254284</v>
       </c>
       <c r="D304" t="n">
-        <v>718435865.5674243</v>
+        <v>690439724.4863057</v>
       </c>
       <c r="E304" t="n">
-        <v>0.05576335534944022</v>
+        <v>0.0611441944802144</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-3.896818411064029</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3725507282438864</v>
+        <v>0.3775494324456308</v>
       </c>
       <c r="C305" t="n">
-        <v>92940062.33254284</v>
+        <v>74684107.40224957</v>
       </c>
       <c r="D305" t="n">
-        <v>690439724.4863057</v>
+        <v>699933165.1985461</v>
       </c>
       <c r="E305" t="n">
-        <v>0.06114419448021456</v>
+        <v>0.06538292092469979</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.374984719962846</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3775494324456308</v>
+        <v>0.3828867119768053</v>
       </c>
       <c r="C306" t="n">
-        <v>74684107.40224957</v>
+        <v>59068679.64836861</v>
       </c>
       <c r="D306" t="n">
-        <v>699933165.1985461</v>
+        <v>709282012.3324004</v>
       </c>
       <c r="E306" t="n">
-        <v>0.06538292092469992</v>
+        <v>0.06850707967172284</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.335677118714962</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>0.3828867119768053</v>
+        <v>0.3886587279717569</v>
       </c>
       <c r="C307" t="n">
-        <v>59068679.64836861</v>
+        <v>68531927.07317507</v>
       </c>
       <c r="D307" t="n">
-        <v>709282012.3324004</v>
+        <v>723024636.8881534</v>
       </c>
       <c r="E307" t="n">
-        <v>0.06850707967172298</v>
+        <v>0.07083804107467721</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.93754026139219</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3886587279717569</v>
+        <v>0.3852891906047152</v>
       </c>
       <c r="C308" t="n">
-        <v>68531927.07317507</v>
+        <v>53897993.55596909</v>
       </c>
       <c r="D308" t="n">
-        <v>723024636.8881534</v>
+        <v>717021273.4250329</v>
       </c>
       <c r="E308" t="n">
-        <v>0.07083804107467735</v>
+        <v>0.07287727634193657</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-0.8303124342980417</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>0.3852891906047152</v>
+        <v>0.387911087620434</v>
       </c>
       <c r="C309" t="n">
-        <v>53897993.55596909</v>
+        <v>50640161.48636652</v>
       </c>
       <c r="D309" t="n">
-        <v>717021273.4250329</v>
+        <v>725423196.7191236</v>
       </c>
       <c r="E309" t="n">
-        <v>0.07287727634193671</v>
+        <v>0.07450755357738834</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.171781592191379</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>0.387911087620434</v>
+        <v>0.4006269338013526</v>
       </c>
       <c r="C310" t="n">
-        <v>50640161.48636652</v>
+        <v>43199796.26277722</v>
       </c>
       <c r="D310" t="n">
-        <v>725423196.7191236</v>
+        <v>748676555.0489684</v>
       </c>
       <c r="E310" t="n">
-        <v>0.07450755357738847</v>
+        <v>0.07561376169925486</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.205488663033251</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>0.4006269338013526</v>
+        <v>0.4234981508183309</v>
       </c>
       <c r="C311" t="n">
-        <v>43199796.26277722</v>
+        <v>90916727.82935804</v>
       </c>
       <c r="D311" t="n">
-        <v>748676555.0489684</v>
+        <v>790653509.7247815</v>
       </c>
       <c r="E311" t="n">
-        <v>0.07561376169925499</v>
+        <v>0.07594135596432282</v>
+      </c>
+      <c r="F311" t="n">
+        <v>5.606821048786226</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4234981508183309</v>
+        <v>0.4178465339762589</v>
       </c>
       <c r="C312" t="n">
-        <v>90916727.82935804</v>
+        <v>93511936.7369556</v>
       </c>
       <c r="D312" t="n">
-        <v>790653509.7247815</v>
+        <v>781922830.8361894</v>
       </c>
       <c r="E312" t="n">
-        <v>0.07594135596432294</v>
+        <v>0.07626768693370427</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-1.104235772207118</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4178465339762589</v>
+        <v>0.4356406643025561</v>
       </c>
       <c r="C313" t="n">
-        <v>93511936.7369556</v>
+        <v>60394132.13097019</v>
       </c>
       <c r="D313" t="n">
-        <v>781922830.8361894</v>
+        <v>814283460.5892702</v>
       </c>
       <c r="E313" t="n">
-        <v>0.07626768693370439</v>
+        <v>0.07637515877246882</v>
+      </c>
+      <c r="F313" t="n">
+        <v>4.138596352081736</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>0.4356406643025561</v>
+        <v>0.4426363607592468</v>
       </c>
       <c r="C314" t="n">
-        <v>60394132.13097019</v>
+        <v>76083184.24256879</v>
       </c>
       <c r="D314" t="n">
-        <v>814283460.5892702</v>
+        <v>826162283.6237286</v>
       </c>
       <c r="E314" t="n">
-        <v>0.07637515877246895</v>
+        <v>0.07617205429710579</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1.458806866329088</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>0.4426363607592468</v>
+        <v>0.4405236706892269</v>
       </c>
       <c r="C315" t="n">
-        <v>76083184.24256879</v>
+        <v>52056139.21732688</v>
       </c>
       <c r="D315" t="n">
-        <v>826162283.6237286</v>
+        <v>823947794.3120393</v>
       </c>
       <c r="E315" t="n">
-        <v>0.07617205429710591</v>
+        <v>0.07577420324935258</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-0.2680453169534802</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4405236706892269</v>
+        <v>0.4247137326953336</v>
       </c>
       <c r="C316" t="n">
-        <v>52056139.21732688</v>
+        <v>51921857.00026834</v>
       </c>
       <c r="D316" t="n">
-        <v>823947794.3120393</v>
+        <v>792417245.1601795</v>
       </c>
       <c r="E316" t="n">
-        <v>0.0757742032493527</v>
+        <v>0.07516272737456577</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-3.826765405469212</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4247137326953336</v>
+        <v>0.4277692511074264</v>
       </c>
       <c r="C317" t="n">
-        <v>51921857.00026834</v>
+        <v>37897474.10327737</v>
       </c>
       <c r="D317" t="n">
-        <v>792417245.1601795</v>
+        <v>798487025.3601048</v>
       </c>
       <c r="E317" t="n">
-        <v>0.07516272737456589</v>
+        <v>0.07314639176826204</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.7659828501963561</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4277692511074264</v>
+        <v>0.3979410884216615</v>
       </c>
       <c r="C318" t="n">
-        <v>37897474.10327737</v>
+        <v>46840752.4371534</v>
       </c>
       <c r="D318" t="n">
-        <v>798487025.3601048</v>
+        <v>744475608.7042226</v>
       </c>
       <c r="E318" t="n">
-        <v>0.07314639176826218</v>
+        <v>0.0716909237110076</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-6.76421969806259</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3979410884216615</v>
+        <v>0.4065734941406379</v>
       </c>
       <c r="C319" t="n">
-        <v>46840752.4371534</v>
+        <v>37791487.87030946</v>
       </c>
       <c r="D319" t="n">
-        <v>744475608.7042226</v>
+        <v>761150145.2851607</v>
       </c>
       <c r="E319" t="n">
-        <v>0.07169092371100774</v>
+        <v>0.06939664434232781</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2.239769360605459</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>0.4065734941406379</v>
+        <v>0.4183328291362588</v>
       </c>
       <c r="C320" t="n">
-        <v>37791487.87030946</v>
+        <v>72456282.98228565</v>
       </c>
       <c r="D320" t="n">
-        <v>761150145.2851607</v>
+        <v>781527824.2695363</v>
       </c>
       <c r="E320" t="n">
-        <v>0.06939664434232795</v>
+        <v>0.06758269795850431</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2.67722197921163</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4183328291362588</v>
+        <v>0.4571859006090572</v>
       </c>
       <c r="C321" t="n">
-        <v>72456282.98228565</v>
+        <v>132050279.8043512</v>
       </c>
       <c r="D321" t="n">
-        <v>781527824.2695363</v>
+        <v>849726013.7902474</v>
       </c>
       <c r="E321" t="n">
-        <v>0.06758269795850445</v>
+        <v>0.0642625004280537</v>
+      </c>
+      <c r="F321" t="n">
+        <v>8.726265067331852</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4571859006090572</v>
+        <v>0.4479030241597323</v>
       </c>
       <c r="C322" t="n">
-        <v>132050279.8043512</v>
+        <v>113706444.4530382</v>
       </c>
       <c r="D322" t="n">
-        <v>849726013.7902474</v>
+        <v>837636462.7449119</v>
       </c>
       <c r="E322" t="n">
-        <v>0.06426250042805386</v>
+        <v>0.05890676161660466</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-1.422758730359386</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4479030241597323</v>
+        <v>0.448788227459575</v>
       </c>
       <c r="C323" t="n">
-        <v>113706444.4530382</v>
+        <v>58679900.63041471</v>
       </c>
       <c r="D323" t="n">
-        <v>837636462.7449119</v>
+        <v>839524288.5769941</v>
       </c>
       <c r="E323" t="n">
-        <v>0.05890676161660482</v>
+        <v>0.05290268932327134</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.2253753168642847</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>0.448788227459575</v>
+        <v>0.4390021660443771</v>
       </c>
       <c r="C324" t="n">
-        <v>58679900.63041471</v>
+        <v>63623467.12621541</v>
       </c>
       <c r="D324" t="n">
-        <v>839524288.5769941</v>
+        <v>823803075.9374802</v>
       </c>
       <c r="E324" t="n">
-        <v>0.05290268932327152</v>
+        <v>0.04304399889759475</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1.872633448897776</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>0.4390021660443771</v>
+        <v>0.4260112709101747</v>
       </c>
       <c r="C325" t="n">
-        <v>63623467.12621541</v>
+        <v>52933684.71661465</v>
       </c>
       <c r="D325" t="n">
-        <v>823803075.9374802</v>
+        <v>797512563.2140704</v>
       </c>
       <c r="E325" t="n">
-        <v>0.04304399889759498</v>
+        <v>0.03862976779922704</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-3.191358892838725</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>0.4260112709101747</v>
+        <v>0.4129339711209623</v>
       </c>
       <c r="C326" t="n">
-        <v>52933684.71661465</v>
+        <v>48918990.14898288</v>
       </c>
       <c r="D326" t="n">
-        <v>797512563.2140704</v>
+        <v>773336425.2622273</v>
       </c>
       <c r="E326" t="n">
-        <v>0.03862976779922729</v>
+        <v>0.03252766454731063</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-3.031442897201575</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4129339711209623</v>
+        <v>0.4189742189720801</v>
       </c>
       <c r="C327" t="n">
-        <v>48918990.14898288</v>
+        <v>37130614.85979016</v>
       </c>
       <c r="D327" t="n">
-        <v>773336425.2622273</v>
+        <v>782893199.3138514</v>
       </c>
       <c r="E327" t="n">
-        <v>0.03252766454731092</v>
+        <v>0.02937176743495341</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.23578480715989</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4189742189720801</v>
+        <v>0.4152193782976454</v>
       </c>
       <c r="C328" t="n">
-        <v>37130614.85979016</v>
+        <v>30267610.52640821</v>
       </c>
       <c r="D328" t="n">
-        <v>782893199.3138514</v>
+        <v>776285281.7792716</v>
       </c>
       <c r="E328" t="n">
-        <v>0.02937176743495374</v>
+        <v>0.02619177421460434</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-0.8440381830332799</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4152193782976454</v>
+        <v>0.411994603038351</v>
       </c>
       <c r="C329" t="n">
-        <v>30267610.52640821</v>
+        <v>29293559.98031517</v>
       </c>
       <c r="D329" t="n">
-        <v>776285281.7792716</v>
+        <v>769724405.9873141</v>
       </c>
       <c r="E329" t="n">
-        <v>0.0261917742146047</v>
+        <v>0.0240525742462604</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-0.8451629762862067</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>0.411994603038351</v>
+        <v>0.4165696598244545</v>
       </c>
       <c r="C330" t="n">
-        <v>29293559.98031517</v>
+        <v>50165792.21833354</v>
       </c>
       <c r="D330" t="n">
-        <v>769724405.9873141</v>
+        <v>777538991.5203753</v>
       </c>
       <c r="E330" t="n">
-        <v>0.0240525742462608</v>
+        <v>0.02362411746149013</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.015244608625543</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>0.4165696598244545</v>
+        <v>0.4241363827316895</v>
       </c>
       <c r="C331" t="n">
-        <v>50165792.21833354</v>
+        <v>36693040.70757798</v>
       </c>
       <c r="D331" t="n">
-        <v>777538991.5203753</v>
+        <v>793619311.7788578</v>
       </c>
       <c r="E331" t="n">
-        <v>0.02362411746149053</v>
+        <v>0.02315822778787628</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2.068104678202642</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>0.4241363827316895</v>
+        <v>0.4233802249028146</v>
       </c>
       <c r="C332" t="n">
-        <v>36693040.70757798</v>
+        <v>49016669.18633199</v>
       </c>
       <c r="D332" t="n">
-        <v>793619311.7788578</v>
+        <v>792972831.3062315</v>
       </c>
       <c r="E332" t="n">
-        <v>0.02315822778787669</v>
+        <v>0.02270238963237058</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-0.08145977082857359</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>0.4233802249028146</v>
+        <v>0.4784846073131855</v>
       </c>
       <c r="C333" t="n">
-        <v>49016669.18633199</v>
+        <v>154428131.2921774</v>
       </c>
       <c r="D333" t="n">
-        <v>792972831.3062315</v>
+        <v>925938036.949807</v>
       </c>
       <c r="E333" t="n">
-        <v>0.022702389632371</v>
+        <v>0.02482913094204365</v>
+      </c>
+      <c r="F333" t="n">
+        <v>16.7679396309893</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>0.4784846073131855</v>
+        <v>0.4502000301047765</v>
       </c>
       <c r="C334" t="n">
-        <v>154428131.2921774</v>
+        <v>114608669.9001691</v>
       </c>
       <c r="D334" t="n">
-        <v>925938036.949807</v>
+        <v>869634839.0958128</v>
       </c>
       <c r="E334" t="n">
-        <v>0.02482913094204403</v>
+        <v>0.02391696395485702</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-6.08066583369512</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>0.4502000301047765</v>
+        <v>0.4526942519297289</v>
       </c>
       <c r="C335" t="n">
-        <v>114608669.9001691</v>
+        <v>58666581.21133933</v>
       </c>
       <c r="D335" t="n">
-        <v>869634839.0958128</v>
+        <v>876117177.9474254</v>
       </c>
       <c r="E335" t="n">
-        <v>0.02391696395485742</v>
+        <v>0.02313458602066701</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.7454092867705819</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>0.4526942519297289</v>
+        <v>0.4416318901713622</v>
       </c>
       <c r="C336" t="n">
-        <v>58666581.21133933</v>
+        <v>61589361.1369554</v>
       </c>
       <c r="D336" t="n">
-        <v>876117177.9474254</v>
+        <v>853490159.7438371</v>
       </c>
       <c r="E336" t="n">
-        <v>0.02313458602066743</v>
+        <v>0.02204071028200103</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-2.582647478342914</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>0.4416318901713622</v>
+        <v>0.452444375642963</v>
       </c>
       <c r="C337" t="n">
-        <v>61589361.1369554</v>
+        <v>76284228.76800929</v>
       </c>
       <c r="D337" t="n">
-        <v>853490159.7438371</v>
+        <v>876068155.7565383</v>
       </c>
       <c r="E337" t="n">
-        <v>0.02204071028200147</v>
+        <v>0.02143900308821922</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2.645372738623908</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>0.452444375642963</v>
+        <v>0.4418813834925667</v>
       </c>
       <c r="C338" t="n">
-        <v>76284228.76800929</v>
+        <v>53947585.77224667</v>
       </c>
       <c r="D338" t="n">
-        <v>876068155.7565383</v>
+        <v>853624925.8929563</v>
       </c>
       <c r="E338" t="n">
-        <v>0.02143900308821967</v>
+        <v>0.02003497276240906</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-2.561813223789755</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>0.4418813834925667</v>
+        <v>0.4415590912721732</v>
       </c>
       <c r="C339" t="n">
-        <v>53947585.77224667</v>
+        <v>49244994.13780827</v>
       </c>
       <c r="D339" t="n">
-        <v>853624925.8929563</v>
+        <v>853634796.5728128</v>
       </c>
       <c r="E339" t="n">
-        <v>0.02003497276240953</v>
+        <v>0.01853793583099618</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.001156325167772643</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>0.4415590912721732</v>
+        <v>0.439780072490144</v>
       </c>
       <c r="C340" t="n">
-        <v>49244994.13780827</v>
+        <v>60026692.42565629</v>
       </c>
       <c r="D340" t="n">
-        <v>853634796.5728128</v>
+        <v>851893164.1160818</v>
       </c>
       <c r="E340" t="n">
-        <v>0.01853793583099669</v>
+        <v>0.01766639011044182</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-0.2040254759673954</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>0.439780072490144</v>
+        <v>0.4468972862417664</v>
       </c>
       <c r="C341" t="n">
-        <v>60026692.42565629</v>
+        <v>44342203.4050431</v>
       </c>
       <c r="D341" t="n">
-        <v>851893164.1160818</v>
+        <v>864885616.207433</v>
       </c>
       <c r="E341" t="n">
-        <v>0.01766639011044236</v>
+        <v>0.01776958466858908</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.525126933590548</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>0.4468972862417664</v>
+        <v>0.4404131943752646</v>
       </c>
       <c r="C342" t="n">
-        <v>44342203.4050431</v>
+        <v>44127323.70610628</v>
       </c>
       <c r="D342" t="n">
-        <v>864885616.207433</v>
+        <v>851332777.5978582</v>
       </c>
       <c r="E342" t="n">
-        <v>0.01776958466858962</v>
+        <v>0.01756840961235941</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-1.567009365817029</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>0.4404131943752646</v>
+        <v>0.4574415261718993</v>
       </c>
       <c r="C343" t="n">
-        <v>44127323.70610628</v>
+        <v>67411228.82796215</v>
       </c>
       <c r="D343" t="n">
-        <v>851332777.5978582</v>
+        <v>885404634.2371527</v>
       </c>
       <c r="E343" t="n">
-        <v>0.01756840961235996</v>
+        <v>0.01807891809344716</v>
+      </c>
+      <c r="F343" t="n">
+        <v>4.002178411999191</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4574415261718993</v>
+        <v>0.4311087405941283</v>
       </c>
       <c r="C344" t="n">
-        <v>67411228.82796215</v>
+        <v>67215522.75629574</v>
       </c>
       <c r="D344" t="n">
-        <v>885404634.2371527</v>
+        <v>833218477.6194078</v>
       </c>
       <c r="E344" t="n">
-        <v>0.01807891809344769</v>
+        <v>0.01802906810578996</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-5.89404602142245</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>0.4311087405941283</v>
+        <v>0.4285373099463001</v>
       </c>
       <c r="C345" t="n">
-        <v>67215522.75629574</v>
+        <v>43671649.94133276</v>
       </c>
       <c r="D345" t="n">
-        <v>833218477.6194078</v>
+        <v>828698934.5863929</v>
       </c>
       <c r="E345" t="n">
-        <v>0.01802906810579049</v>
+        <v>0.01802186937126015</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.5424199239949301</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>0.4285373099463001</v>
+        <v>0.4296421947696589</v>
       </c>
       <c r="C346" t="n">
-        <v>43671649.94133276</v>
+        <v>44835753.0474607</v>
       </c>
       <c r="D346" t="n">
-        <v>828698934.5863929</v>
+        <v>830915994.7844378</v>
       </c>
       <c r="E346" t="n">
-        <v>0.01802186937126068</v>
+        <v>0.01795648592209293</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.2675350607457272</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>0.4296421947696589</v>
+        <v>0.4260097991172772</v>
       </c>
       <c r="C347" t="n">
-        <v>44835753.0474607</v>
+        <v>36057628.73788329</v>
       </c>
       <c r="D347" t="n">
-        <v>830915994.7844378</v>
+        <v>824484129.0126903</v>
       </c>
       <c r="E347" t="n">
-        <v>0.01795648592209347</v>
+        <v>0.01798100647081335</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.7740693177312186</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>0.4260097991172772</v>
+        <v>0.4312835463514592</v>
       </c>
       <c r="C348" t="n">
-        <v>36057628.73788329</v>
+        <v>32761053.21011417</v>
       </c>
       <c r="D348" t="n">
-        <v>824484129.0126903</v>
+        <v>834702558.5857037</v>
       </c>
       <c r="E348" t="n">
-        <v>0.01798100647081388</v>
+        <v>0.01664859448692683</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1.239372501354263</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>0.4312835463514592</v>
+        <v>0.4388023998654358</v>
       </c>
       <c r="C349" t="n">
-        <v>32761053.21011417</v>
+        <v>32279127.84936588</v>
       </c>
       <c r="D349" t="n">
-        <v>834702558.5857037</v>
+        <v>849254448.4538223</v>
       </c>
       <c r="E349" t="n">
-        <v>0.0166485944869274</v>
+        <v>0.01575107244818554</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1.743362317323527</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>0.4388023998654358</v>
+        <v>0.431007870641385</v>
       </c>
       <c r="C350" t="n">
-        <v>32279127.84936588</v>
+        <v>45147436.78551889</v>
       </c>
       <c r="D350" t="n">
-        <v>849254448.4538223</v>
+        <v>833767567.5468533</v>
       </c>
       <c r="E350" t="n">
-        <v>0.01575107244818615</v>
+        <v>0.01541877336472956</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-1.823585491387747</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>0.431007870641385</v>
+        <v>0.4232983029711176</v>
       </c>
       <c r="C351" t="n">
-        <v>45147436.78551889</v>
+        <v>42647777.14304366</v>
       </c>
       <c r="D351" t="n">
-        <v>833767567.5468533</v>
+        <v>819943568.6784785</v>
       </c>
       <c r="E351" t="n">
-        <v>0.01541877336473019</v>
+        <v>0.01510668754290088</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-1.658015903526733</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>0.4232983029711176</v>
+        <v>0.4240790050084859</v>
       </c>
       <c r="C352" t="n">
-        <v>42647777.14304366</v>
+        <v>59902119.71621227</v>
       </c>
       <c r="D352" t="n">
-        <v>819943568.6784785</v>
+        <v>819451323.4002982</v>
       </c>
       <c r="E352" t="n">
-        <v>0.01510668754290151</v>
+        <v>0.01506382621174238</v>
+      </c>
+      <c r="F352" t="n">
+        <v>-0.06003404343710717</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>0.4240790050084859</v>
+        <v>0.4120110458248474</v>
       </c>
       <c r="C353" t="n">
-        <v>59902119.71621227</v>
+        <v>48953127.70073259</v>
       </c>
       <c r="D353" t="n">
-        <v>819451323.4002982</v>
+        <v>797735085.6700693</v>
       </c>
       <c r="E353" t="n">
-        <v>0.01506382621174301</v>
+        <v>0.01537994101117665</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.650094900099464</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>0.4120110458248474</v>
+        <v>0.4049817424602625</v>
       </c>
       <c r="C354" t="n">
-        <v>48953127.70073259</v>
+        <v>53590144.3203963</v>
       </c>
       <c r="D354" t="n">
-        <v>797735085.6700693</v>
+        <v>833758741.6213616</v>
       </c>
       <c r="E354" t="n">
-        <v>0.01537994101117727</v>
+        <v>0.01619885412749093</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4.515741704031195</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>0.4049817424602625</v>
+        <v>0.3987665310268929</v>
       </c>
       <c r="C355" t="n">
-        <v>53590144.3203963</v>
+        <v>55975150.34719624</v>
       </c>
       <c r="D355" t="n">
-        <v>833758741.6213616</v>
+        <v>820064850.1982819</v>
       </c>
       <c r="E355" t="n">
-        <v>0.01619885412749152</v>
+        <v>0.01729849016418107</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-1.642428527519846</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>0.3987665310268929</v>
+        <v>0.4041925284117961</v>
       </c>
       <c r="C356" t="n">
-        <v>55975150.34719624</v>
+        <v>42920097.91276884</v>
       </c>
       <c r="D356" t="n">
-        <v>820064850.1982819</v>
+        <v>831593310.8515939</v>
       </c>
       <c r="E356" t="n">
-        <v>0.01729849016418162</v>
+        <v>0.01769183260425492</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1.405798657328683</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>0.4041925284117961</v>
+        <v>0.4037966034259593</v>
       </c>
       <c r="C357" t="n">
-        <v>42920097.91276884</v>
+        <v>77740154.46384379</v>
       </c>
       <c r="D357" t="n">
-        <v>831593310.8515939</v>
+        <v>830386607.750248</v>
       </c>
       <c r="E357" t="n">
-        <v>0.01769183260425546</v>
+        <v>0.01826270468222536</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.145107360244412</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>0.4037966034259593</v>
+        <v>0.4040308565790236</v>
       </c>
       <c r="C358" t="n">
-        <v>77740154.46384379</v>
+        <v>84143769.21090205</v>
       </c>
       <c r="D358" t="n">
-        <v>830386607.750248</v>
+        <v>830505299.7800136</v>
       </c>
       <c r="E358" t="n">
-        <v>0.01826270468222588</v>
+        <v>0.01869963577091461</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.01429358670501646</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>0.4040308565790236</v>
+        <v>0.4088419395353937</v>
       </c>
       <c r="C359" t="n">
-        <v>84143769.21090205</v>
+        <v>82467602.72707707</v>
       </c>
       <c r="D359" t="n">
-        <v>830505299.7800136</v>
+        <v>841350508.9450591</v>
       </c>
       <c r="E359" t="n">
-        <v>0.01869963577091512</v>
+        <v>0.01881495809882876</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1.305856707707731</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4088419395353937</v>
+        <v>0.4067379138865216</v>
       </c>
       <c r="C360" t="n">
-        <v>82467602.72707707</v>
+        <v>75432144.06316572</v>
       </c>
       <c r="D360" t="n">
-        <v>841350508.9450591</v>
+        <v>836937669.44513</v>
       </c>
       <c r="E360" t="n">
-        <v>0.01881495809882927</v>
+        <v>0.01914444750461529</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-0.5244947798821897</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>0.4067379138865216</v>
+        <v>0.4015748962769662</v>
       </c>
       <c r="C361" t="n">
-        <v>75432144.06316572</v>
+        <v>72857415.92627509</v>
       </c>
       <c r="D361" t="n">
-        <v>836937669.44513</v>
+        <v>827202104.979807</v>
       </c>
       <c r="E361" t="n">
-        <v>0.01914444750461579</v>
+        <v>0.01981163404845333</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.163236501444298</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>0.4015748962769662</v>
+        <v>0.4000658016471512</v>
       </c>
       <c r="C362" t="n">
-        <v>72857415.92627509</v>
+        <v>79678626.08886415</v>
       </c>
       <c r="D362" t="n">
-        <v>827202104.979807</v>
+        <v>823410964.8131304</v>
       </c>
       <c r="E362" t="n">
-        <v>0.01981163404845381</v>
+        <v>0.020492704886382</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.4583088152041337</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>0.4000658016471512</v>
+        <v>0.4017398546737378</v>
       </c>
       <c r="C363" t="n">
-        <v>79678626.08886415</v>
+        <v>59938901.70353082</v>
       </c>
       <c r="D363" t="n">
-        <v>823410964.8131304</v>
+        <v>826452424.112336</v>
       </c>
       <c r="E363" t="n">
-        <v>0.02049270488638247</v>
+        <v>0.01874102493122842</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.369373184129973</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>0.4017398546737378</v>
+        <v>0.3929730144049895</v>
       </c>
       <c r="C364" t="n">
-        <v>59938901.70353082</v>
+        <v>77512365.13835299</v>
       </c>
       <c r="D364" t="n">
-        <v>826452424.112336</v>
+        <v>808013791.2084281</v>
       </c>
       <c r="E364" t="n">
-        <v>0.01874102493122893</v>
+        <v>0.01908617400187138</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-2.231057997526253</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3929730144049895</v>
+        <v>0.3926445322267909</v>
       </c>
       <c r="C365" t="n">
-        <v>77512365.13835299</v>
+        <v>105923925.3704818</v>
       </c>
       <c r="D365" t="n">
-        <v>808013791.2084281</v>
+        <v>807920275.726236</v>
       </c>
       <c r="E365" t="n">
-        <v>0.01908617400187188</v>
+        <v>0.0191155104023649</v>
+      </c>
+      <c r="F365" t="n">
+        <v>-0.01157350075080554</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3926445322267909</v>
+        <v>0.3714169393893422</v>
       </c>
       <c r="C366" t="n">
-        <v>105923925.3704818</v>
+        <v>84384901.24030881</v>
       </c>
       <c r="D366" t="n">
-        <v>807920275.726236</v>
+        <v>764924135.0926008</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0191155104023654</v>
+        <v>0.02084179709736929</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-5.321829631641084</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.60675925926</v>
+        <v>45154.28059027778</v>
       </c>
       <c r="B367" t="n">
-        <v>0.387913097592482</v>
+        <v>0.3634822988811421</v>
       </c>
       <c r="C367" t="n">
-        <v>78380537.38672081</v>
+        <v>90569224.71707156</v>
       </c>
       <c r="D367" t="n">
-        <v>798041459.8770685</v>
+        <v>748380976.941854</v>
       </c>
       <c r="E367" t="n">
-        <v>0.01971386701011771</v>
+        <v>0.02228609758236893</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-2.162718809852182</v>
       </c>
     </row>
   </sheetData>
